--- a/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C429D-8C24-DD4B-ABF3-CA2F7AD62DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3EB8B-AB3A-8B46-8E4C-B1613D6F9665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="1180" windowWidth="23040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23300" yWindow="1480" windowWidth="23040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$391</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="165">
   <si>
     <t>Jack mackerel</t>
   </si>
@@ -433,15 +436,9 @@
     <t xml:space="preserve">Totals </t>
   </si>
   <si>
-    <t xml:space="preserve">All other   </t>
-  </si>
-  <si>
     <t>Table 49</t>
   </si>
   <si>
-    <t>Eureka regiou totals</t>
-  </si>
-  <si>
     <t>Eureka</t>
   </si>
   <si>
@@ -500,13 +497,34 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>Eureka region totals</t>
+  </si>
+  <si>
+    <t>Sacramento region</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>Santa Barbara region</t>
+  </si>
+  <si>
+    <t>Los Angeles region</t>
+  </si>
+  <si>
+    <t>San Diego region</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -520,12 +538,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -549,15 +561,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,8 +892,8 @@
     <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -899,1150 +908,1170 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" s="7">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>4493341</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>37670746</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>849824</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2400142</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7">
-        <v>849824</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2400142</v>
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>344362</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2431933</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>344362</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2431933</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>134196</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2727555</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
-        <v>134196</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2727555</v>
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2">
+        <v>72725</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4381050</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="7">
-        <v>72725</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4381050</v>
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2">
+        <v>49479</v>
+      </c>
+      <c r="E7" s="2">
+        <v>348447</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="7">
-        <v>49479</v>
-      </c>
-      <c r="E8" s="7">
-        <v>348447</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42341</v>
+      </c>
+      <c r="E8" s="2">
+        <v>654421</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42341</v>
-      </c>
-      <c r="E9" s="7">
-        <v>654421</v>
+        <v>155</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37057</v>
+      </c>
+      <c r="E9" s="2">
+        <v>371310</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7">
-        <v>37057</v>
-      </c>
-      <c r="E10" s="7">
-        <v>371310</v>
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32208</v>
+      </c>
+      <c r="E10" s="2">
+        <v>932577</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7">
-        <v>32208</v>
-      </c>
-      <c r="E11" s="7">
-        <v>932577</v>
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18026</v>
+      </c>
+      <c r="E11" s="2">
+        <v>210832</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7">
-        <v>18026</v>
-      </c>
-      <c r="E12" s="7">
-        <v>210832</v>
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10410</v>
+      </c>
+      <c r="E12" s="2">
+        <v>185225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10410</v>
-      </c>
-      <c r="E13" s="7">
-        <v>185225</v>
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9505</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37702</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7">
-        <v>9505</v>
-      </c>
-      <c r="E14" s="7">
-        <v>37702</v>
+      <c r="D14" s="2">
+        <v>8052</v>
+      </c>
+      <c r="E14" s="2">
+        <v>54810</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8052</v>
-      </c>
-      <c r="E15" s="7">
-        <v>54810</v>
+        <v>155</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6676</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80525</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6676</v>
-      </c>
-      <c r="E16" s="7">
-        <v>80525</v>
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15413</v>
+      </c>
+      <c r="E16" s="2">
+        <v>359571</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15413</v>
-      </c>
-      <c r="E17" s="7">
-        <v>359571</v>
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1630274</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15176100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1630274</v>
-      </c>
-      <c r="E18" s="7">
-        <v>15176100</v>
+        <v>155</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D3:D16)-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>SUM(E3:E16)-E17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="6">
-        <f>SUM(D4:D17)-D18</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <f>SUM(E4:E17)-E18</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>883444</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2506058</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7">
-        <v>883444</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2506058</v>
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>102512</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2083574</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7">
-        <v>102512</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2083574</v>
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <v>67665</v>
+      </c>
+      <c r="E21" s="2">
+        <v>791406</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="7">
-        <v>67665</v>
-      </c>
-      <c r="E22" s="7">
-        <v>791406</v>
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32373</v>
+      </c>
+      <c r="E22" s="2">
+        <v>324378</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7">
-        <v>32373</v>
-      </c>
-      <c r="E23" s="7">
-        <v>324378</v>
+        <v>155</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2">
+        <v>26994</v>
+      </c>
+      <c r="E23" s="2">
+        <v>896246</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="7">
-        <v>26994</v>
-      </c>
-      <c r="E24" s="7">
-        <v>896246</v>
+        <v>155</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22740</v>
+      </c>
+      <c r="E24" s="2">
+        <v>351465</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7">
-        <v>22740</v>
-      </c>
-      <c r="E25" s="7">
-        <v>351465</v>
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14916</v>
+      </c>
+      <c r="E25" s="2">
+        <v>179929</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7">
-        <v>14916</v>
-      </c>
-      <c r="E26" s="7">
-        <v>179929</v>
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11160</v>
+      </c>
+      <c r="E26" s="2">
+        <v>78815</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7">
-        <v>11160</v>
-      </c>
-      <c r="E27" s="7">
-        <v>78815</v>
+        <v>155</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9626</v>
+      </c>
+      <c r="E27" s="2">
+        <v>67791</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7">
-        <v>9626</v>
-      </c>
-      <c r="E28" s="7">
-        <v>67791</v>
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7591</v>
+      </c>
+      <c r="E28" s="2">
+        <v>135075</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7591</v>
-      </c>
-      <c r="E29" s="7">
-        <v>135075</v>
+      <c r="D29" s="2">
+        <v>7150</v>
+      </c>
+      <c r="E29" s="2">
+        <v>370450</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7150</v>
-      </c>
-      <c r="E30" s="7">
-        <v>370450</v>
+        <v>155</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6737</v>
+      </c>
+      <c r="E30" s="2">
+        <v>384982</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="7">
-        <v>6737</v>
-      </c>
-      <c r="E31" s="7">
-        <v>384982</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8401</v>
+      </c>
+      <c r="E31" s="2">
+        <v>142882</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>8401</v>
-      </c>
-      <c r="E32" s="7">
-        <v>142882</v>
+        <v>155</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1201309</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8313051</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1201309</v>
-      </c>
-      <c r="E33" s="7">
-        <v>8313051</v>
+        <v>155</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(D19:D31)-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f>SUM(E19:E31)-E32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="6">
-        <f>SUM(D20:D32)-D33</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <f>SUM(E20:E32)-E33</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2">
+        <v>532314</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3759281</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="7">
-        <v>532314</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3759281</v>
+        <v>155</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>429418</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1212460</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7">
-        <v>429418</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1212460</v>
+      <c r="D36" s="2">
+        <v>78472</v>
+      </c>
+      <c r="E36" s="2">
+        <v>880713</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="7">
-        <v>78472</v>
-      </c>
-      <c r="E37" s="7">
-        <v>880713</v>
+        <v>155</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12465</v>
+      </c>
+      <c r="E37" s="2">
+        <v>87784</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="7">
-        <v>12465</v>
-      </c>
-      <c r="E38" s="7">
-        <v>87784</v>
+        <v>155</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>13130</v>
+      </c>
+      <c r="E38" s="2">
+        <v>194530</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
-        <v>13130</v>
-      </c>
-      <c r="E39" s="7">
-        <v>194530</v>
+        <v>155</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1065799</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6134768</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1065799</v>
-      </c>
-      <c r="E40" s="7">
-        <v>6134768</v>
+        <v>155</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="4">
+        <f>SUM(D34:D38)-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f>SUM(E34:E38)-E39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="6">
-        <f>SUM(D35:D39)-D40</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <f>SUM(E35:E39)-E40</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2">
+        <v>143890</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1016173</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7">
-        <v>143890</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1016173</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2">
+        <v>112247</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2281451</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="7">
-        <v>112247</v>
-      </c>
-      <c r="E43" s="7">
-        <v>2281451</v>
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="2">
+        <v>55110</v>
+      </c>
+      <c r="E43" s="2">
+        <v>552207</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="7">
-        <v>55110</v>
-      </c>
-      <c r="E44" s="7">
-        <v>552207</v>
+        <v>155</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="2">
+        <v>41540</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1243937</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="7">
-        <v>41540</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1243937</v>
+        <v>155</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20618</v>
+      </c>
+      <c r="E45" s="2">
+        <v>318664</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="7">
-        <v>20618</v>
-      </c>
-      <c r="E46" s="7">
-        <v>318664</v>
+        <v>155</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12689</v>
+      </c>
+      <c r="E46" s="2">
+        <v>657470</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="7">
-        <v>12689</v>
-      </c>
-      <c r="E47" s="7">
-        <v>657470</v>
+      <c r="D47" s="2">
+        <v>11876</v>
+      </c>
+      <c r="E47" s="2">
+        <v>678645</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="7">
-        <v>11876</v>
-      </c>
-      <c r="E48" s="7">
-        <v>678645</v>
+        <v>155</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8223</v>
+      </c>
+      <c r="E48" s="2">
+        <v>96181</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="7">
-        <v>8223</v>
-      </c>
-      <c r="E49" s="7">
-        <v>96181</v>
+        <v>155</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>142312</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="7">
-        <v>7998</v>
-      </c>
-      <c r="E50" s="7">
-        <v>142312</v>
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5642</v>
+      </c>
+      <c r="E50" s="2">
+        <v>68060</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="7">
-        <v>5642</v>
-      </c>
-      <c r="E51" s="7">
-        <v>68060</v>
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7397</v>
+      </c>
+      <c r="E51" s="2">
+        <v>67376</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="7">
-        <v>7397</v>
-      </c>
-      <c r="E52" s="7">
-        <v>67376</v>
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>427230</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7122476</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="7">
-        <v>427230</v>
-      </c>
-      <c r="E53" s="7">
-        <v>7122476</v>
+        <v>155</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4">
+        <f>SUM(D41:D51)-D52</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f>SUM(E41:E51)-E52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="6">
-        <f>SUM(D42:D52)-D53</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <f>SUM(E42:E52)-E53</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2">
+        <v>97164</v>
+      </c>
+      <c r="E54" s="2">
+        <v>686183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="7">
-        <v>97164</v>
-      </c>
-      <c r="E55" s="7">
-        <v>686183</v>
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4587</v>
+      </c>
+      <c r="E55" s="2">
+        <v>13357</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7">
-        <v>4587</v>
-      </c>
-      <c r="E56" s="7">
-        <v>13357</v>
+        <v>155</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>101751</v>
+      </c>
+      <c r="E56" s="2">
+        <v>699540</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="7">
-        <v>101751</v>
-      </c>
-      <c r="E57" s="7">
-        <v>699540</v>
+        <v>155</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="4">
+        <f>SUM(D54:D55)-D56</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f>SUM(E54:E55)-E56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="6">
-        <f>SUM(D55:D56)-D57</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <f>SUM(E55:E56)-E57</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <v>30977</v>
+      </c>
+      <c r="E58" s="2">
+        <v>87493</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="7">
-        <v>30977</v>
-      </c>
-      <c r="E59" s="7">
-        <v>87493</v>
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2376</v>
+      </c>
+      <c r="E59" s="2">
+        <v>16935</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" t="s">
         <v>155</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7">
-        <v>2376</v>
-      </c>
-      <c r="E60" s="7">
-        <v>16935</v>
+      <c r="B60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>33353</v>
+      </c>
+      <c r="E60" s="2">
+        <v>104428</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" t="s">
         <v>155</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="7">
-        <v>33353</v>
-      </c>
-      <c r="E61" s="7">
-        <v>104428</v>
+      <c r="C61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="4">
+        <f>SUM(D58:D59)-D60</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <f>SUM(E58:E59)-E60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="6">
-        <f>SUM(D59:D60)-D61</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
-        <f>SUM(E59:E60)-E61</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2">
+        <v>29115</v>
+      </c>
+      <c r="E62" s="2">
+        <v>82273</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="7">
-        <v>29115</v>
-      </c>
-      <c r="E63" s="7">
-        <v>82273</v>
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>173</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1969</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7">
-        <v>173</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1969</v>
+        <v>155</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>29288</v>
+      </c>
+      <c r="E64" s="2">
+        <v>84242</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="7">
-        <v>29288</v>
-      </c>
-      <c r="E65" s="7">
-        <v>84242</v>
+        <v>155</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="4">
+        <f>SUM(D62:D63)-D64</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f>SUM(E62:E63)-E64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="6">
-        <f>SUM(D63:D64)-D65</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <f>SUM(E63:E64)-E65</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4337</v>
+      </c>
+      <c r="E66" s="2">
+        <v>36141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
         <v>4337</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="2">
         <v>36141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="7">
-        <v>4337</v>
-      </c>
-      <c r="E68" s="7">
-        <v>36141</v>
+      <c r="D69" s="2">
+        <v>457780</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2502794</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D70" s="2">
-        <v>457780</v>
+        <v>176274</v>
       </c>
       <c r="E70" s="2">
-        <v>2502794</v>
+        <v>555019</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,13 +2082,13 @@
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D71" s="2">
-        <v>176274</v>
+        <v>16618</v>
       </c>
       <c r="E71" s="2">
-        <v>555019</v>
+        <v>265319</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,13 +2099,13 @@
         <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>16618</v>
+        <v>57</v>
       </c>
       <c r="E72" s="2">
-        <v>265319</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2087,43 +2116,43 @@
         <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2">
-        <v>57</v>
+        <v>192949</v>
       </c>
       <c r="E73" s="2">
-        <v>1213</v>
+        <v>821551</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4">
+        <f>SUM(D70:D72)-D73</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <f>SUM(E70:E72)-E73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2">
-        <v>192949</v>
-      </c>
-      <c r="E74" s="2">
-        <v>821551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="4">
-        <f>SUM(D71:D73)-D74</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <f>SUM(E71:E73)-E74</f>
-        <v>0</v>
+      <c r="B75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2">
+        <v>57581</v>
+      </c>
+      <c r="E75" s="2">
+        <v>181301</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,13 +2163,13 @@
         <v>64</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>57581</v>
+        <v>17956</v>
       </c>
       <c r="E76" s="2">
-        <v>181301</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2151,13 +2180,13 @@
         <v>64</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>17956</v>
+        <v>5434</v>
       </c>
       <c r="E77" s="2">
-        <v>42250</v>
+        <v>90261</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,13 +2197,13 @@
         <v>64</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>5434</v>
+        <v>5399</v>
       </c>
       <c r="E78" s="2">
-        <v>90261</v>
+        <v>128545</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,13 +2214,13 @@
         <v>64</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>5399</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
-        <v>128545</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2202,43 +2231,43 @@
         <v>64</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2">
-        <v>2</v>
+        <v>86372</v>
       </c>
       <c r="E80" s="2">
-        <v>17</v>
+        <v>442374</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="C81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="4">
+        <f>SUM(D75:D79)-D80</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f>SUM(E75:E79)-E80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>86372</v>
-      </c>
-      <c r="E81" s="2">
-        <v>442374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="4">
-        <f>SUM(D76:D80)-D81</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <f>SUM(E76:E80)-E81</f>
-        <v>0</v>
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2">
+        <v>50881</v>
+      </c>
+      <c r="E82" s="2">
+        <v>160203</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,13 +2278,13 @@
         <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2">
-        <v>50881</v>
+        <v>1860</v>
       </c>
       <c r="E83" s="2">
-        <v>160203</v>
+        <v>28120</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,43 +2295,43 @@
         <v>93</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2">
-        <v>1860</v>
+        <v>52741</v>
       </c>
       <c r="E84" s="2">
-        <v>28120</v>
+        <v>188323</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4">
+        <f>SUM(D82:D83)-D84</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f>SUM(E82:E83)-E84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2">
-        <v>52741</v>
-      </c>
-      <c r="E85" s="2">
-        <v>188323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="4">
-        <f>SUM(D83:D84)-D85</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="4">
-        <f>SUM(E83:E84)-E85</f>
-        <v>0</v>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2">
+        <v>42061</v>
+      </c>
+      <c r="E86" s="2">
+        <v>132433</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2313,13 +2342,13 @@
         <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
-        <v>42061</v>
+        <v>3371</v>
       </c>
       <c r="E87" s="2">
-        <v>132433</v>
+        <v>47530</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2330,43 +2359,43 @@
         <v>92</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2">
-        <v>3371</v>
+        <v>45432</v>
       </c>
       <c r="E88" s="2">
-        <v>47530</v>
+        <v>179963</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4">
+        <f>SUM(D86:D87)-D88</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <f>SUM(E86:E87)-E88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45432</v>
-      </c>
-      <c r="E89" s="2">
-        <v>179963</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="4">
-        <f>SUM(D87:D88)-D89</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <f>SUM(E87:E88)-E89</f>
-        <v>0</v>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2">
+        <v>35136</v>
+      </c>
+      <c r="E90" s="2">
+        <v>110629</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,7 +2406,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2">
         <v>35136</v>
@@ -2387,28 +2416,32 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="C92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2">
-        <v>35136</v>
-      </c>
-      <c r="E92" s="2">
-        <v>110629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>22943</v>
+      </c>
+      <c r="E93" s="2">
+        <v>546260</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -2418,13 +2451,13 @@
         <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>22943</v>
+        <v>10774</v>
       </c>
       <c r="E94" s="2">
-        <v>546260</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,43 +2468,43 @@
         <v>90</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>33717</v>
+      </c>
+      <c r="E95" s="2">
+        <v>571610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4">
+        <f>SUM(D93:D94)-D95</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f>SUM(E93:E94)-E95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="2">
-        <v>10774</v>
-      </c>
-      <c r="E95" s="2">
-        <v>25350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2">
-        <v>33717</v>
-      </c>
-      <c r="E96" s="2">
-        <v>571610</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C97" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="4">
-        <f>SUM(D94:D95)-D96</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="4">
-        <f>SUM(E94:E95)-E96</f>
-        <v>0</v>
+      <c r="D97" s="2">
+        <v>3889</v>
+      </c>
+      <c r="E97" s="2">
+        <v>9150</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,13 +2515,13 @@
         <v>89</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2">
-        <v>3889</v>
+        <v>3883</v>
       </c>
       <c r="E98" s="2">
-        <v>9150</v>
+        <v>92442</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2499,13 +2532,13 @@
         <v>89</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>3883</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2">
-        <v>92442</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,43 +2549,43 @@
         <v>89</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" s="2">
-        <v>22</v>
+        <v>7794</v>
       </c>
       <c r="E100" s="2">
-        <v>110</v>
+        <v>101702</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="C101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="4">
+        <f>SUM(D97:D99)-D100</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <f>SUM(E97:E99)-E100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2">
-        <v>7794</v>
-      </c>
-      <c r="E101" s="2">
-        <v>101702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C102" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="4">
-        <f>SUM(D98:D100)-D101</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <f>SUM(E98:E100)-E101</f>
-        <v>0</v>
+      <c r="B102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3639</v>
+      </c>
+      <c r="E102" s="2">
+        <v>86642</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2563,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D103" s="2">
         <v>3639</v>
@@ -2573,28 +2606,32 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="2">
-        <v>3639</v>
-      </c>
-      <c r="E104" s="2">
-        <v>86642</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C105" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="2">
+        <v>5071091</v>
+      </c>
+      <c r="E105" s="2">
+        <v>39158735</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -2604,13 +2641,13 @@
         <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2">
-        <v>5071091</v>
+        <v>1357585</v>
       </c>
       <c r="E106" s="2">
-        <v>39158735</v>
+        <v>9531726</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,13 +2658,13 @@
         <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>1357585</v>
+        <v>899001</v>
       </c>
       <c r="E107" s="2">
-        <v>9531726</v>
+        <v>5114208</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2638,13 +2675,13 @@
         <v>87</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2">
-        <v>899001</v>
+        <v>365824</v>
       </c>
       <c r="E108" s="2">
-        <v>5114208</v>
+        <v>3444675</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2655,13 +2692,13 @@
         <v>87</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2">
-        <v>365824</v>
+        <v>237868</v>
       </c>
       <c r="E109" s="2">
-        <v>3444675</v>
+        <v>681591</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2672,13 +2709,13 @@
         <v>87</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>237868</v>
+        <v>87877</v>
       </c>
       <c r="E110" s="2">
-        <v>681591</v>
+        <v>2262881</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2689,13 +2726,13 @@
         <v>87</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2">
-        <v>87877</v>
+        <v>75743</v>
       </c>
       <c r="E111" s="2">
-        <v>2262881</v>
+        <v>1283786</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2706,13 +2743,13 @@
         <v>87</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2">
-        <v>75743</v>
+        <v>70457</v>
       </c>
       <c r="E112" s="2">
-        <v>1283786</v>
+        <v>994873</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2723,13 +2760,13 @@
         <v>87</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2">
-        <v>70457</v>
+        <v>56195</v>
       </c>
       <c r="E113" s="2">
-        <v>994873</v>
+        <v>638584</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2740,13 +2777,13 @@
         <v>87</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2">
-        <v>56195</v>
+        <v>50918</v>
       </c>
       <c r="E114" s="2">
-        <v>638584</v>
+        <v>493713</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2757,13 +2794,13 @@
         <v>87</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D115" s="2">
-        <v>50918</v>
+        <v>38405</v>
       </c>
       <c r="E115" s="2">
-        <v>493713</v>
+        <v>36576</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2774,13 +2811,13 @@
         <v>87</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2">
-        <v>38405</v>
+        <v>37525</v>
       </c>
       <c r="E116" s="2">
-        <v>36576</v>
+        <v>1048190</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,13 +2828,13 @@
         <v>87</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2">
-        <v>37525</v>
+        <v>23690</v>
       </c>
       <c r="E117" s="2">
-        <v>1048190</v>
+        <v>313360</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2808,13 +2845,13 @@
         <v>87</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2">
-        <v>23690</v>
+        <v>19859</v>
       </c>
       <c r="E118" s="2">
-        <v>313360</v>
+        <v>406122</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2825,13 +2862,13 @@
         <v>87</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" s="2">
-        <v>19859</v>
+        <v>16846</v>
       </c>
       <c r="E119" s="2">
-        <v>406122</v>
+        <v>338267</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,13 +2879,13 @@
         <v>87</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2">
-        <v>16846</v>
+        <v>11998</v>
       </c>
       <c r="E120" s="2">
-        <v>338267</v>
+        <v>181246</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2859,13 +2896,13 @@
         <v>87</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D121" s="2">
-        <v>11998</v>
+        <v>11938</v>
       </c>
       <c r="E121" s="2">
-        <v>181246</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2876,13 +2913,13 @@
         <v>87</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>11938</v>
+        <v>7760</v>
       </c>
       <c r="E122" s="2">
-        <v>45916</v>
+        <v>387981</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2893,13 +2930,13 @@
         <v>87</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
-        <v>7760</v>
+        <v>6736</v>
       </c>
       <c r="E123" s="2">
-        <v>387981</v>
+        <v>73793</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,13 +2947,13 @@
         <v>87</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
-        <v>6736</v>
+        <v>5576</v>
       </c>
       <c r="E124" s="2">
-        <v>73793</v>
+        <v>131506</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2927,13 +2964,13 @@
         <v>87</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
-        <v>5576</v>
+        <v>5323</v>
       </c>
       <c r="E125" s="2">
-        <v>131506</v>
+        <v>60909</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2944,13 +2981,13 @@
         <v>87</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D126" s="2">
-        <v>5323</v>
+        <v>26395</v>
       </c>
       <c r="E126" s="2">
-        <v>60909</v>
+        <v>571229</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,43 +2998,43 @@
         <v>87</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="2">
-        <v>26395</v>
+        <v>3413519</v>
       </c>
       <c r="E127" s="2">
-        <v>571229</v>
+        <v>28041132</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="C128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="4">
+        <f>SUM(D106:D126)-D127</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <f>SUM(E106:E126)-E127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="2">
-        <v>3413519</v>
-      </c>
-      <c r="E128" s="2">
-        <v>28041132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C129" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="4">
-        <f>SUM(D107:D127)-D128</f>
-        <v>0</v>
-      </c>
-      <c r="E129" s="4">
-        <f>SUM(E107:E127)-E128</f>
-        <v>0</v>
+      <c r="B129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2">
+        <v>438206</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1308859</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,13 +3045,13 @@
         <v>86</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2">
-        <v>438206</v>
+        <v>48283</v>
       </c>
       <c r="E130" s="2">
-        <v>1308859</v>
+        <v>454639</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3025,13 +3062,13 @@
         <v>86</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2">
-        <v>48283</v>
+        <v>20558</v>
       </c>
       <c r="E131" s="2">
-        <v>454639</v>
+        <v>578439</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,13 +3079,13 @@
         <v>86</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
-        <v>20558</v>
+        <v>20017</v>
       </c>
       <c r="E132" s="2">
-        <v>578439</v>
+        <v>173300</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,13 +3096,13 @@
         <v>86</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
-        <v>20017</v>
+        <v>16316</v>
       </c>
       <c r="E133" s="2">
-        <v>173300</v>
+        <v>185420</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,13 +3113,13 @@
         <v>86</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2">
-        <v>16316</v>
+        <v>10582</v>
       </c>
       <c r="E134" s="2">
-        <v>185420</v>
+        <v>179358</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3093,13 +3130,13 @@
         <v>86</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2">
-        <v>10582</v>
+        <v>7058</v>
       </c>
       <c r="E135" s="2">
-        <v>179358</v>
+        <v>106603</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3110,13 +3147,13 @@
         <v>86</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>7058</v>
+        <v>14424</v>
       </c>
       <c r="E136" s="2">
-        <v>106603</v>
+        <v>362192</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,43 +3164,43 @@
         <v>86</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="2">
-        <v>14424</v>
+        <v>575444</v>
       </c>
       <c r="E137" s="2">
-        <v>362192</v>
+        <v>3348810</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="C138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="4">
+        <f>SUM(D129:D136)-D137</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <f>SUM(E129:E136)-E137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2">
-        <v>575444</v>
-      </c>
-      <c r="E138" s="2">
-        <v>3348810</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C139" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="4">
-        <f>SUM(D130:D137)-D138</f>
-        <v>0</v>
-      </c>
-      <c r="E139" s="4">
-        <f>SUM(E130:E137)-E138</f>
-        <v>0</v>
+      <c r="B139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2">
+        <v>256313</v>
+      </c>
+      <c r="E139" s="2">
+        <v>765570</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,13 +3211,13 @@
         <v>85</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2">
-        <v>256313</v>
+        <v>139779</v>
       </c>
       <c r="E140" s="2">
-        <v>765570</v>
+        <v>1316191</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,13 +3228,13 @@
         <v>85</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
-        <v>139779</v>
+        <v>18309</v>
       </c>
       <c r="E141" s="2">
-        <v>1316191</v>
+        <v>248088</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3208,13 +3245,13 @@
         <v>85</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2">
-        <v>18309</v>
+        <v>15767</v>
       </c>
       <c r="E142" s="2">
-        <v>248088</v>
+        <v>267245</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,13 +3262,13 @@
         <v>85</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>15767</v>
+        <v>5492</v>
       </c>
       <c r="E143" s="2">
-        <v>267245</v>
+        <v>62735</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,13 +3279,13 @@
         <v>85</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
-        <v>5492</v>
+        <v>5241</v>
       </c>
       <c r="E144" s="2">
-        <v>62735</v>
+        <v>59554</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3259,13 +3296,13 @@
         <v>85</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D145" s="2">
-        <v>5241</v>
+        <v>24294</v>
       </c>
       <c r="E145" s="2">
-        <v>59554</v>
+        <v>440468</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3276,43 +3313,43 @@
         <v>85</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="2">
-        <v>24294</v>
+        <v>465195</v>
       </c>
       <c r="E146" s="2">
-        <v>440468</v>
+        <v>3159851</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="C147" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="4">
+        <f>SUM(D139:D145)-D146</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <f>SUM(E139:E145)-E146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="2">
-        <v>465195</v>
-      </c>
-      <c r="E147" s="2">
-        <v>3159851</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="4">
-        <f>SUM(D140:D146)-D147</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="4">
-        <f>SUM(E140:E146)-E147</f>
-        <v>0</v>
+      <c r="B148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="2">
+        <v>173606</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1087756</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,13 +3360,13 @@
         <v>84</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2">
-        <v>173606</v>
+        <v>49986</v>
       </c>
       <c r="E149" s="2">
-        <v>1087756</v>
+        <v>149159</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,13 +3377,13 @@
         <v>84</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2">
-        <v>49986</v>
+        <v>21140</v>
       </c>
       <c r="E150" s="2">
-        <v>149159</v>
+        <v>207713</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,13 +3394,13 @@
         <v>84</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D151" s="2">
-        <v>21140</v>
+        <v>393</v>
       </c>
       <c r="E151" s="2">
-        <v>207713</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,43 +3411,43 @@
         <v>84</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" s="2">
-        <v>393</v>
+        <v>245125</v>
       </c>
       <c r="E152" s="2">
-        <v>9142</v>
+        <v>1453770</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="C153" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="4">
+        <f>SUM(D148:D151)-D152</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <f>SUM(E148:E151)-E152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="2">
-        <v>245125</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1453770</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C154" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154" s="4">
-        <f>SUM(D149:D152)-D153</f>
-        <v>0</v>
-      </c>
-      <c r="E154" s="4">
-        <f>SUM(E149:E152)-E153</f>
-        <v>0</v>
+      <c r="B154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="2">
+        <v>174141</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1091106</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,13 +3458,13 @@
         <v>34</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2">
-        <v>174141</v>
+        <v>29685</v>
       </c>
       <c r="E155" s="2">
-        <v>1091106</v>
+        <v>279528</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3438,13 +3475,13 @@
         <v>34</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2">
-        <v>29685</v>
+        <v>20960</v>
       </c>
       <c r="E156" s="2">
-        <v>279528</v>
+        <v>62482</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,13 +3492,13 @@
         <v>34</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D157" s="2">
-        <v>20960</v>
+        <v>1901</v>
       </c>
       <c r="E157" s="2">
-        <v>62482</v>
+        <v>24559</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3472,43 +3509,43 @@
         <v>34</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="2">
-        <v>1901</v>
+        <v>226687</v>
       </c>
       <c r="E158" s="2">
-        <v>24559</v>
+        <v>1457675</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="C159" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="4">
+        <f>SUM(D154:D157)-D158</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <f>SUM(E154:E157)-E158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2">
-        <v>226687</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1457675</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C160" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="4">
-        <f>SUM(D155:D158)-D159</f>
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <f>SUM(E155:E158)-E159</f>
-        <v>0</v>
+      <c r="B160" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" s="2">
+        <v>37905</v>
+      </c>
+      <c r="E160" s="2">
+        <v>142181</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3519,13 +3556,13 @@
         <v>83</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2">
-        <v>37905</v>
+        <v>17538</v>
       </c>
       <c r="E161" s="2">
-        <v>142181</v>
+        <v>151845</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3536,13 +3573,13 @@
         <v>83</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
-        <v>17538</v>
+        <v>8394</v>
       </c>
       <c r="E162" s="2">
-        <v>151845</v>
+        <v>617200</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3553,13 +3590,13 @@
         <v>83</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D163" s="2">
-        <v>8394</v>
+        <v>5255</v>
       </c>
       <c r="E163" s="2">
-        <v>617200</v>
+        <v>46549</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3570,43 +3607,43 @@
         <v>83</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D164" s="2">
-        <v>5255</v>
+        <v>69092</v>
       </c>
       <c r="E164" s="2">
-        <v>46549</v>
+        <v>957775</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="C165" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="4">
+        <f>SUM(D160:D163)-D164</f>
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <f>SUM(E160:E163)-E164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="2">
-        <v>69092</v>
-      </c>
-      <c r="E165" s="2">
-        <v>957775</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C166" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D166" s="4">
-        <f>SUM(D161:D164)-D165</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <f>SUM(E161:E164)-E165</f>
-        <v>0</v>
+      <c r="B166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2">
+        <v>28573</v>
+      </c>
+      <c r="E166" s="2">
+        <v>269048</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,13 +3654,13 @@
         <v>81</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>28573</v>
+        <v>11936</v>
       </c>
       <c r="E167" s="2">
-        <v>269048</v>
+        <v>35652</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3634,13 +3671,13 @@
         <v>81</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>11936</v>
+        <v>4797</v>
       </c>
       <c r="E168" s="2">
-        <v>35652</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3651,43 +3688,43 @@
         <v>81</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D169" s="2">
-        <v>4797</v>
+        <v>45306</v>
       </c>
       <c r="E169" s="2">
-        <v>33920</v>
+        <v>338620</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="C170" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="4">
+        <f>SUM(D166:D168)-D169</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <f>SUM(E166:E168)-E169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45306</v>
-      </c>
-      <c r="E170" s="2">
-        <v>338620</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C171" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D171" s="4">
-        <f>SUM(D167:D169)-D170</f>
-        <v>0</v>
-      </c>
-      <c r="E171" s="4">
-        <f>SUM(E167:E169)-E170</f>
-        <v>0</v>
+      <c r="B171" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="2">
+        <v>28074</v>
+      </c>
+      <c r="E171" s="2">
+        <v>371351</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,13 +3735,13 @@
         <v>80</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>28074</v>
+        <v>889</v>
       </c>
       <c r="E172" s="2">
-        <v>371351</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,43 +3752,43 @@
         <v>80</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" s="2">
-        <v>889</v>
+        <v>28963</v>
       </c>
       <c r="E173" s="2">
-        <v>6775</v>
+        <v>378126</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="4">
+        <f>SUM(D171:D172)-D173</f>
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <f>SUM(E171:E172)-E173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="2">
-        <v>28963</v>
-      </c>
-      <c r="E174" s="2">
-        <v>378126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C175" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D175" s="4">
-        <f>SUM(D172:D173)-D174</f>
-        <v>0</v>
-      </c>
-      <c r="E175" s="4">
-        <f>SUM(E172:E173)-E174</f>
-        <v>0</v>
+      <c r="B175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1760</v>
+      </c>
+      <c r="E175" s="2">
+        <v>22976</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3761,6 +3798,9 @@
       <c r="B176" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D176" s="2">
         <v>1760</v>
       </c>
@@ -3769,41 +3809,48 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="2">
-        <v>1760</v>
-      </c>
-      <c r="E177" s="2">
-        <v>22976</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C178" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="D178" s="2">
+        <v>2031401</v>
+      </c>
+      <c r="E178" s="2">
+        <v>46551249</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C179" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2">
-        <v>2031401</v>
+        <v>257932</v>
       </c>
       <c r="E179" s="2">
-        <v>46551249</v>
+        <v>15083766</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -3814,13 +3861,13 @@
         <v>78</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D180" s="2">
-        <v>257932</v>
+        <v>226483</v>
       </c>
       <c r="E180" s="2">
-        <v>15083766</v>
+        <v>5115444</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3831,13 +3878,13 @@
         <v>78</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2">
-        <v>226483</v>
+        <v>165750</v>
       </c>
       <c r="E181" s="2">
-        <v>5115444</v>
+        <v>1052379</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3848,13 +3895,13 @@
         <v>78</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
-        <v>165750</v>
+        <v>109629</v>
       </c>
       <c r="E182" s="2">
-        <v>1052379</v>
+        <v>8498400</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3865,13 +3912,13 @@
         <v>78</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D183" s="2">
-        <v>109629</v>
+        <v>98232</v>
       </c>
       <c r="E183" s="2">
-        <v>8498400</v>
+        <v>284567</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,13 +3929,13 @@
         <v>78</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D184" s="2">
-        <v>98232</v>
+        <v>47975</v>
       </c>
       <c r="E184" s="2">
-        <v>284567</v>
+        <v>360983</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3899,13 +3946,13 @@
         <v>78</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D185" s="2">
-        <v>47975</v>
+        <v>45886</v>
       </c>
       <c r="E185" s="2">
-        <v>360983</v>
+        <v>1927978</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,13 +3963,13 @@
         <v>78</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2">
-        <v>45886</v>
+        <v>30748</v>
       </c>
       <c r="E186" s="2">
-        <v>1927978</v>
+        <v>452176</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3933,13 +3980,13 @@
         <v>78</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D187" s="2">
-        <v>30748</v>
+        <v>15076</v>
       </c>
       <c r="E187" s="2">
-        <v>452176</v>
+        <v>544265</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3950,13 +3997,13 @@
         <v>78</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188" s="2">
-        <v>15076</v>
+        <v>10071</v>
       </c>
       <c r="E188" s="2">
-        <v>544265</v>
+        <v>103933</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3967,13 +4014,13 @@
         <v>78</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D189" s="2">
-        <v>10071</v>
+        <v>9083</v>
       </c>
       <c r="E189" s="2">
-        <v>103933</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3984,13 +4031,13 @@
         <v>78</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D190" s="2">
-        <v>9083</v>
+        <v>6761</v>
       </c>
       <c r="E190" s="2">
-        <v>100589</v>
+        <v>112675</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -4001,13 +4048,13 @@
         <v>78</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D191" s="2">
-        <v>6761</v>
+        <v>33859</v>
       </c>
       <c r="E191" s="2">
-        <v>112675</v>
+        <v>767127</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -4018,43 +4065,43 @@
         <v>78</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D192" s="2">
-        <v>33859</v>
+        <v>1057485</v>
       </c>
       <c r="E192" s="2">
-        <v>767127</v>
+        <v>34404282</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="C193" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" s="4">
+        <f>SUM(D179:D191)-D192</f>
+        <v>0</v>
+      </c>
+      <c r="E193" s="4">
+        <f>SUM(E179:E191)-E192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="2">
-        <v>1057485</v>
-      </c>
-      <c r="E193" s="2">
-        <v>34404282</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C194" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" s="4">
-        <f>SUM(D180:D192)-D193</f>
-        <v>0</v>
-      </c>
-      <c r="E194" s="4">
-        <f>SUM(E180:E192)-E193</f>
-        <v>0</v>
+      <c r="B194" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2">
+        <v>77950</v>
+      </c>
+      <c r="E194" s="2">
+        <v>225810</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -4065,13 +4112,13 @@
         <v>77</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D195" s="2">
-        <v>77950</v>
+        <v>28712</v>
       </c>
       <c r="E195" s="2">
-        <v>225810</v>
+        <v>182300</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4082,13 +4129,13 @@
         <v>77</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D196" s="2">
-        <v>28712</v>
+        <v>23834</v>
       </c>
       <c r="E196" s="2">
-        <v>182300</v>
+        <v>500512</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -4099,13 +4146,13 @@
         <v>77</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
-        <v>23834</v>
+        <v>13011</v>
       </c>
       <c r="E197" s="2">
-        <v>500512</v>
+        <v>285953</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -4116,13 +4163,13 @@
         <v>77</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D198" s="2">
-        <v>13011</v>
+        <v>9610</v>
       </c>
       <c r="E198" s="2">
-        <v>285953</v>
+        <v>346949</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -4133,13 +4180,13 @@
         <v>77</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>9610</v>
+        <v>9121</v>
       </c>
       <c r="E199" s="2">
-        <v>346949</v>
+        <v>134131</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,13 +4197,13 @@
         <v>77</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D200" s="2">
-        <v>9121</v>
+        <v>8348</v>
       </c>
       <c r="E200" s="2">
-        <v>134131</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -4167,13 +4214,13 @@
         <v>77</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2">
-        <v>8348</v>
+        <v>7944</v>
       </c>
       <c r="E201" s="2">
-        <v>22031</v>
+        <v>81981</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -4184,13 +4231,13 @@
         <v>77</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
-        <v>7944</v>
+        <v>5376</v>
       </c>
       <c r="E202" s="2">
-        <v>81981</v>
+        <v>78042</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -4201,13 +4248,13 @@
         <v>77</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D203" s="2">
-        <v>5376</v>
+        <v>21184</v>
       </c>
       <c r="E203" s="2">
-        <v>78042</v>
+        <v>437589</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -4218,43 +4265,43 @@
         <v>77</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" s="2">
-        <v>21184</v>
+        <v>205090</v>
       </c>
       <c r="E204" s="2">
-        <v>437589</v>
+        <v>2295298</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+      <c r="C205" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D205" s="4">
+        <f>SUM(D194:D203)-D204</f>
+        <v>0</v>
+      </c>
+      <c r="E205" s="4">
+        <f>SUM(E194:E203)-E204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="2">
-        <v>205090</v>
-      </c>
-      <c r="E205" s="2">
-        <v>2295298</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C206" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D206" s="4">
-        <f>SUM(D195:D204)-D205</f>
-        <v>0</v>
-      </c>
-      <c r="E206" s="4">
-        <f>SUM(E195:E204)-E205</f>
-        <v>0</v>
+      <c r="B206" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="2">
+        <v>539499</v>
+      </c>
+      <c r="E206" s="2">
+        <v>3425392</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,13 +4312,13 @@
         <v>76</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D207" s="2">
-        <v>539499</v>
+        <v>83743</v>
       </c>
       <c r="E207" s="2">
-        <v>3425392</v>
+        <v>242592</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -4282,13 +4329,13 @@
         <v>76</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D208" s="2">
-        <v>83743</v>
+        <v>59895</v>
       </c>
       <c r="E208" s="2">
-        <v>242592</v>
+        <v>3502615</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,13 +4346,13 @@
         <v>76</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D209" s="2">
-        <v>59895</v>
+        <v>28089</v>
       </c>
       <c r="E209" s="2">
-        <v>3502615</v>
+        <v>541033</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4316,13 +4363,13 @@
         <v>76</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
-        <v>28089</v>
+        <v>18499</v>
       </c>
       <c r="E210" s="2">
-        <v>541033</v>
+        <v>406580</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4333,13 +4380,13 @@
         <v>76</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
-        <v>18499</v>
+        <v>13950</v>
       </c>
       <c r="E211" s="2">
-        <v>406580</v>
+        <v>1081400</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -4350,13 +4397,13 @@
         <v>76</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D212" s="2">
-        <v>13950</v>
+        <v>11516</v>
       </c>
       <c r="E212" s="2">
-        <v>1081400</v>
+        <v>483860</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4367,13 +4414,13 @@
         <v>76</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D213" s="2">
-        <v>11516</v>
+        <v>13635</v>
       </c>
       <c r="E213" s="2">
-        <v>483860</v>
+        <v>168197</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,54 +4431,60 @@
         <v>76</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214" s="2">
-        <v>13635</v>
+        <v>768826</v>
       </c>
       <c r="E214" s="2">
-        <v>168197</v>
+        <v>9851669</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D215" s="4">
+        <f>SUM(D206:D213)-D214</f>
+        <v>0</v>
+      </c>
+      <c r="E215" s="4">
+        <f>SUM(E206:E213)-E214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="2">
-        <v>768826</v>
-      </c>
-      <c r="E215" s="2">
-        <v>9851669</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C216" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D216" s="4">
-        <f>SUM(D207:D214)-D215</f>
-        <v>0</v>
-      </c>
-      <c r="E216" s="4">
-        <f>SUM(E207:E214)-E215</f>
-        <v>0</v>
+      <c r="D216" s="2">
+        <v>2175953</v>
+      </c>
+      <c r="E216" s="2">
+        <v>54329327</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B217" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D217" s="2">
-        <v>2175953</v>
+        <v>543737</v>
       </c>
       <c r="E217" s="2">
-        <v>54329327</v>
+        <v>3190944</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -4442,13 +4495,13 @@
         <v>70</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D218" s="2">
-        <v>543737</v>
+        <v>74210</v>
       </c>
       <c r="E218" s="2">
-        <v>3190944</v>
+        <v>204915</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4459,13 +4512,13 @@
         <v>70</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D219" s="2">
-        <v>74210</v>
+        <v>21951</v>
       </c>
       <c r="E219" s="2">
-        <v>204915</v>
+        <v>148016</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4476,13 +4529,13 @@
         <v>70</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D220" s="2">
-        <v>21951</v>
+        <v>15039</v>
       </c>
       <c r="E220" s="2">
-        <v>148016</v>
+        <v>154721</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4493,13 +4546,13 @@
         <v>70</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>15039</v>
+        <v>14415</v>
       </c>
       <c r="E221" s="2">
-        <v>154721</v>
+        <v>100106</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4510,13 +4563,13 @@
         <v>70</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D222" s="2">
-        <v>14415</v>
+        <v>9507</v>
       </c>
       <c r="E222" s="2">
-        <v>100106</v>
+        <v>68942</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4527,13 +4580,13 @@
         <v>70</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2">
-        <v>9507</v>
+        <v>8211</v>
       </c>
       <c r="E223" s="2">
-        <v>68942</v>
+        <v>154224</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4544,13 +4597,13 @@
         <v>70</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224" s="2">
-        <v>8211</v>
+        <v>9604</v>
       </c>
       <c r="E224" s="2">
-        <v>154224</v>
+        <v>228073</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4561,43 +4614,43 @@
         <v>70</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D225" s="2">
-        <v>9604</v>
+        <v>696674</v>
       </c>
       <c r="E225" s="2">
-        <v>228073</v>
+        <v>4249941</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="C226" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D226" s="4">
+        <f>SUM(D217:D224)-D225</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="4">
+        <f>SUM(E217:E224)-E225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="2">
-        <v>696674</v>
-      </c>
-      <c r="E226" s="2">
-        <v>4249941</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C227" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D227" s="4">
-        <f>SUM(D218:D225)-D226</f>
-        <v>0</v>
-      </c>
-      <c r="E227" s="4">
-        <f>SUM(E218:E225)-E226</f>
-        <v>0</v>
+      <c r="B227" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D227" s="2">
+        <v>274358</v>
+      </c>
+      <c r="E227" s="2">
+        <v>14439885</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4608,13 +4661,13 @@
         <v>71</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D228" s="2">
-        <v>274358</v>
+        <v>203051</v>
       </c>
       <c r="E228" s="2">
-        <v>14439885</v>
+        <v>13447066</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4625,13 +4678,13 @@
         <v>71</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D229" s="2">
-        <v>203051</v>
+        <v>190156</v>
       </c>
       <c r="E229" s="2">
-        <v>13447066</v>
+        <v>11251815</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4642,13 +4695,13 @@
         <v>71</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D230" s="2">
-        <v>190156</v>
+        <v>15470</v>
       </c>
       <c r="E230" s="2">
-        <v>11251815</v>
+        <v>176040</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -4659,13 +4712,13 @@
         <v>71</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D231" s="2">
-        <v>15470</v>
+        <v>6351</v>
       </c>
       <c r="E231" s="2">
-        <v>176040</v>
+        <v>242536</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4676,43 +4729,43 @@
         <v>71</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D232" s="2">
-        <v>6351</v>
+        <v>689386</v>
       </c>
       <c r="E232" s="2">
-        <v>242536</v>
+        <v>39557342</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="C233" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D233" s="4">
+        <f>SUM(D227:D231)-D232</f>
+        <v>0</v>
+      </c>
+      <c r="E233" s="4">
+        <f>SUM(E227:E231)-E232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="2">
-        <v>689386</v>
-      </c>
-      <c r="E233" s="2">
-        <v>39557342</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C234" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D234" s="4">
-        <f>SUM(D228:D232)-D233</f>
-        <v>0</v>
-      </c>
-      <c r="E234" s="4">
-        <f>SUM(E228:E232)-E233</f>
-        <v>0</v>
+      <c r="B234" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" s="2">
+        <v>116382</v>
+      </c>
+      <c r="E234" s="2">
+        <v>945577</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -4723,13 +4776,13 @@
         <v>72</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D235" s="2">
-        <v>116382</v>
+        <v>95411</v>
       </c>
       <c r="E235" s="2">
-        <v>945577</v>
+        <v>192284</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4740,13 +4793,13 @@
         <v>72</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D236" s="2">
-        <v>95411</v>
+        <v>29981</v>
       </c>
       <c r="E236" s="2">
-        <v>192284</v>
+        <v>133785</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4757,13 +4810,13 @@
         <v>72</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D237" s="2">
-        <v>29981</v>
+        <v>16744</v>
       </c>
       <c r="E237" s="2">
-        <v>133785</v>
+        <v>881240</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -4774,13 +4827,13 @@
         <v>72</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D238" s="2">
-        <v>16744</v>
+        <v>11349</v>
       </c>
       <c r="E238" s="2">
-        <v>881240</v>
+        <v>40373</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4791,13 +4844,13 @@
         <v>72</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D239" s="2">
-        <v>11349</v>
+        <v>10595</v>
       </c>
       <c r="E239" s="2">
-        <v>40373</v>
+        <v>161156</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -4808,13 +4861,13 @@
         <v>72</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D240" s="2">
-        <v>10595</v>
+        <v>9881</v>
       </c>
       <c r="E240" s="2">
-        <v>161156</v>
+        <v>584678</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4825,13 +4878,13 @@
         <v>72</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D241" s="2">
-        <v>9881</v>
+        <v>9779</v>
       </c>
       <c r="E241" s="2">
-        <v>584678</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4842,13 +4895,13 @@
         <v>72</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D242" s="2">
-        <v>9779</v>
+        <v>9179</v>
       </c>
       <c r="E242" s="2">
-        <v>100605</v>
+        <v>607892</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -4859,13 +4912,13 @@
         <v>72</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D243" s="2">
-        <v>9179</v>
+        <v>6737</v>
       </c>
       <c r="E243" s="2">
-        <v>607892</v>
+        <v>104285</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -4876,13 +4929,13 @@
         <v>72</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
-        <v>6737</v>
+        <v>6052</v>
       </c>
       <c r="E244" s="2">
-        <v>104285</v>
+        <v>321900</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4893,13 +4946,13 @@
         <v>72</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>6052</v>
+        <v>5163</v>
       </c>
       <c r="E245" s="2">
-        <v>321900</v>
+        <v>157292</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4910,13 +4963,13 @@
         <v>72</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D246" s="2">
-        <v>5163</v>
+        <v>5046</v>
       </c>
       <c r="E246" s="2">
-        <v>157292</v>
+        <v>13199</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4927,13 +4980,13 @@
         <v>72</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D247" s="2">
-        <v>5046</v>
+        <v>8919</v>
       </c>
       <c r="E247" s="2">
-        <v>13199</v>
+        <v>138257</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4944,43 +4997,43 @@
         <v>72</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D248" s="2">
-        <v>8919</v>
+        <v>341218</v>
       </c>
       <c r="E248" s="2">
-        <v>138257</v>
+        <v>4382523</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="C249" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D249" s="4">
+        <f>SUM(D234:D247)-D248</f>
+        <v>0</v>
+      </c>
+      <c r="E249" s="4">
+        <f>SUM(E234:E247)-E248</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D249" s="2">
-        <v>341218</v>
-      </c>
-      <c r="E249" s="2">
-        <v>4382523</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C250" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D250" s="4">
-        <f>SUM(D235:D248)-D249</f>
-        <v>0</v>
-      </c>
-      <c r="E250" s="4">
-        <f>SUM(E235:E248)-E249</f>
-        <v>0</v>
+      <c r="B250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" s="2">
+        <v>95688</v>
+      </c>
+      <c r="E250" s="2">
+        <v>696680</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4991,13 +5044,13 @@
         <v>73</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D251" s="2">
-        <v>95688</v>
+        <v>82947</v>
       </c>
       <c r="E251" s="2">
-        <v>696680</v>
+        <v>2264308</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -5008,13 +5061,13 @@
         <v>73</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D252" s="2">
-        <v>82947</v>
+        <v>32474</v>
       </c>
       <c r="E252" s="2">
-        <v>2264308</v>
+        <v>225513</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -5025,13 +5078,13 @@
         <v>73</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D253" s="2">
-        <v>32474</v>
+        <v>28040</v>
       </c>
       <c r="E253" s="2">
-        <v>225513</v>
+        <v>1395025</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -5042,13 +5095,13 @@
         <v>73</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D254" s="2">
-        <v>28040</v>
+        <v>25194</v>
       </c>
       <c r="E254" s="2">
-        <v>1395025</v>
+        <v>169885</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -5059,13 +5112,13 @@
         <v>73</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D255" s="2">
-        <v>25194</v>
+        <v>23315</v>
       </c>
       <c r="E255" s="2">
-        <v>169885</v>
+        <v>239863</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -5076,13 +5129,13 @@
         <v>73</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D256" s="2">
-        <v>23315</v>
+        <v>21325</v>
       </c>
       <c r="E256" s="2">
-        <v>239863</v>
+        <v>58893</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -5093,13 +5146,13 @@
         <v>73</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D257" s="2">
-        <v>21325</v>
+        <v>8861</v>
       </c>
       <c r="E257" s="2">
-        <v>58893</v>
+        <v>40157</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,13 +5163,13 @@
         <v>73</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D258" s="2">
-        <v>8861</v>
+        <v>7093</v>
       </c>
       <c r="E258" s="2">
-        <v>40157</v>
+        <v>79429</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,13 +5180,13 @@
         <v>73</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D259" s="2">
-        <v>7093</v>
+        <v>7400</v>
       </c>
       <c r="E259" s="2">
-        <v>79429</v>
+        <v>139692</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,43 +5197,43 @@
         <v>73</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D260" s="2">
-        <v>7400</v>
+        <v>332337</v>
       </c>
       <c r="E260" s="2">
-        <v>139692</v>
+        <v>5309445</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="C261" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D261" s="4">
+        <f>SUM(D250:D259)-D260</f>
+        <v>0</v>
+      </c>
+      <c r="E261" s="4">
+        <f>SUM(E250:E259)-E260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D261" s="2">
-        <v>332337</v>
-      </c>
-      <c r="E261" s="2">
-        <v>5309445</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C262" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D262" s="4">
-        <f>SUM(D251:D260)-D261</f>
-        <v>0</v>
-      </c>
-      <c r="E262" s="4">
-        <f>SUM(E251:E260)-E261</f>
-        <v>0</v>
+      <c r="B262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D262" s="2">
+        <v>111217</v>
+      </c>
+      <c r="E262" s="2">
+        <v>806504</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -5191,7 +5244,7 @@
         <v>74</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D263" s="2">
         <v>111217</v>
@@ -5201,28 +5254,32 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+      <c r="C264" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
+      <c r="E264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" s="2">
-        <v>111217</v>
-      </c>
-      <c r="E264" s="2">
-        <v>806504</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C265" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
+      <c r="B265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D265" s="2">
+        <v>5121</v>
+      </c>
+      <c r="E265" s="2">
+        <v>23572</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
@@ -5232,7 +5289,7 @@
         <v>75</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D266" s="2">
         <v>5121</v>
@@ -5242,44 +5299,83 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
+      <c r="E267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="2">
-        <v>5121</v>
-      </c>
-      <c r="E267" s="2">
-        <v>23572</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C268" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
+      <c r="D268" s="2">
+        <v>37792479</v>
+      </c>
+      <c r="E268" s="2">
+        <v>447690196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" s="2">
+        <v>17352801</v>
+      </c>
+      <c r="E269" s="2">
+        <v>126445944</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D270" s="2">
-        <v>37792479</v>
+        <v>8469023</v>
       </c>
       <c r="E270" s="2">
-        <v>447690196</v>
+        <v>74696374</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="2">
+        <v>5003051</v>
+      </c>
+      <c r="E271" s="2">
+        <v>27548831</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
@@ -5289,13 +5385,13 @@
         <v>95</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D272" s="2">
-        <v>17352801</v>
+        <v>1483716</v>
       </c>
       <c r="E272" s="2">
-        <v>126445944</v>
+        <v>11367498</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,13 +5402,13 @@
         <v>95</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D273" s="2">
-        <v>8469023</v>
+        <v>1226640</v>
       </c>
       <c r="E273" s="2">
-        <v>74696374</v>
+        <v>48103535</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5323,13 +5419,13 @@
         <v>95</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D274" s="2">
-        <v>5003051</v>
+        <v>994964</v>
       </c>
       <c r="E274" s="2">
-        <v>27548831</v>
+        <v>46711942</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -5340,13 +5436,13 @@
         <v>95</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D275" s="2">
-        <v>1483716</v>
+        <v>534754</v>
       </c>
       <c r="E275" s="2">
-        <v>11367498</v>
+        <v>23661671</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -5357,13 +5453,13 @@
         <v>95</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2">
-        <v>1226640</v>
+        <v>150067</v>
       </c>
       <c r="E276" s="2">
-        <v>48103535</v>
+        <v>12005371</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5374,13 +5470,13 @@
         <v>95</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D277" s="2">
-        <v>994964</v>
+        <v>85128</v>
       </c>
       <c r="E277" s="2">
-        <v>46711942</v>
+        <v>665582</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5391,13 +5487,13 @@
         <v>95</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D278" s="2">
-        <v>534754</v>
+        <v>15812</v>
       </c>
       <c r="E278" s="2">
-        <v>23661671</v>
+        <v>735432</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -5408,13 +5504,13 @@
         <v>95</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D279" s="2">
-        <v>150067</v>
+        <v>13198</v>
       </c>
       <c r="E279" s="2">
-        <v>12005371</v>
+        <v>144876</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -5425,13 +5521,13 @@
         <v>95</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D280" s="2">
-        <v>85128</v>
+        <v>6248</v>
       </c>
       <c r="E280" s="2">
-        <v>665582</v>
+        <v>33232</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -5442,13 +5538,13 @@
         <v>95</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D281" s="2">
-        <v>15812</v>
+        <v>3682</v>
       </c>
       <c r="E281" s="2">
-        <v>735432</v>
+        <v>61513</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -5459,30 +5555,29 @@
         <v>95</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D282" s="2">
-        <v>13198</v>
+        <v>35339084</v>
       </c>
       <c r="E282" s="2">
-        <v>144876</v>
+        <v>372181801</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D283" s="2">
-        <v>6248</v>
-      </c>
-      <c r="E283" s="2">
-        <v>33232</v>
+      <c r="C283" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D283" s="4">
+        <f>SUM(D269:D281)-D282</f>
+        <v>0</v>
+      </c>
+      <c r="E283" s="4">
+        <f>SUM(E269:E281)-E282</f>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -5490,16 +5585,16 @@
         <v>126</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D284" s="2">
-        <v>3682</v>
+        <v>144137</v>
       </c>
       <c r="E284" s="2">
-        <v>61513</v>
+        <v>603589</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -5507,32 +5602,33 @@
         <v>126</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D285" s="2">
-        <v>35339084</v>
+        <v>102498</v>
       </c>
       <c r="E285" s="2">
-        <v>372181801</v>
+        <v>565353</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D286" s="6">
-        <f>SUM(D272:D284)-D285</f>
-        <v>0</v>
-      </c>
-      <c r="E286" s="6">
-        <f>SUM(E272:E284)-E285</f>
-        <v>0</v>
+      <c r="B286" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D286" s="2">
+        <v>86978</v>
+      </c>
+      <c r="E286" s="2">
+        <v>163584</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5543,13 +5639,13 @@
         <v>103</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D287" s="2">
-        <v>144137</v>
+        <v>64565</v>
       </c>
       <c r="E287" s="2">
-        <v>603589</v>
+        <v>2856865</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -5560,13 +5656,13 @@
         <v>103</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D288" s="2">
-        <v>102498</v>
+        <v>61867</v>
       </c>
       <c r="E288" s="2">
-        <v>565353</v>
+        <v>473713</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -5577,13 +5673,13 @@
         <v>103</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D289" s="2">
-        <v>86978</v>
+        <v>55656</v>
       </c>
       <c r="E289" s="2">
-        <v>163584</v>
+        <v>4452480</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -5594,13 +5690,13 @@
         <v>103</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D290" s="2">
-        <v>64565</v>
+        <v>52767</v>
       </c>
       <c r="E290" s="2">
-        <v>2856865</v>
+        <v>390292</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -5611,13 +5707,13 @@
         <v>103</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D291" s="2">
-        <v>61867</v>
+        <v>51358</v>
       </c>
       <c r="E291" s="2">
-        <v>473713</v>
+        <v>2014021</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -5628,13 +5724,13 @@
         <v>103</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D292" s="2">
-        <v>55656</v>
+        <v>45937</v>
       </c>
       <c r="E292" s="2">
-        <v>4452480</v>
+        <v>299266</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -5645,13 +5741,13 @@
         <v>103</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D293" s="2">
-        <v>52767</v>
+        <v>42857</v>
       </c>
       <c r="E293" s="2">
-        <v>390292</v>
+        <v>2012057</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -5662,13 +5758,13 @@
         <v>103</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D294" s="2">
-        <v>51358</v>
+        <v>37232</v>
       </c>
       <c r="E294" s="2">
-        <v>2014021</v>
+        <v>370337</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -5679,13 +5775,13 @@
         <v>103</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D295" s="2">
-        <v>45937</v>
+        <v>33320</v>
       </c>
       <c r="E295" s="2">
-        <v>299266</v>
+        <v>177232</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5696,13 +5792,13 @@
         <v>103</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D296" s="2">
-        <v>42857</v>
+        <v>30402</v>
       </c>
       <c r="E296" s="2">
-        <v>2012057</v>
+        <v>118479</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -5713,13 +5809,13 @@
         <v>103</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D297" s="2">
-        <v>37232</v>
+        <v>24785</v>
       </c>
       <c r="E297" s="2">
-        <v>370337</v>
+        <v>61684</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -5730,13 +5826,13 @@
         <v>103</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D298" s="2">
-        <v>33320</v>
+        <v>24036</v>
       </c>
       <c r="E298" s="2">
-        <v>177232</v>
+        <v>136179</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -5747,13 +5843,13 @@
         <v>103</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D299" s="2">
-        <v>30402</v>
+        <v>15878</v>
       </c>
       <c r="E299" s="2">
-        <v>118479</v>
+        <v>447311</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -5764,13 +5860,13 @@
         <v>103</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D300" s="2">
-        <v>24785</v>
+        <v>14632</v>
       </c>
       <c r="E300" s="2">
-        <v>61684</v>
+        <v>59845</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -5781,13 +5877,13 @@
         <v>103</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D301" s="2">
-        <v>24036</v>
+        <v>14630</v>
       </c>
       <c r="E301" s="2">
-        <v>136179</v>
+        <v>677298</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -5798,13 +5894,13 @@
         <v>103</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D302" s="2">
-        <v>15878</v>
+        <v>11532</v>
       </c>
       <c r="E302" s="2">
-        <v>447311</v>
+        <v>126582</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -5815,13 +5911,13 @@
         <v>103</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D303" s="2">
-        <v>14632</v>
+        <v>10547</v>
       </c>
       <c r="E303" s="2">
-        <v>59845</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -5832,13 +5928,13 @@
         <v>103</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D304" s="2">
-        <v>14630</v>
+        <v>10071</v>
       </c>
       <c r="E304" s="2">
-        <v>677298</v>
+        <v>93569</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -5849,13 +5945,13 @@
         <v>103</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D305" s="2">
-        <v>11532</v>
+        <v>9395</v>
       </c>
       <c r="E305" s="2">
-        <v>126582</v>
+        <v>63438</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -5866,13 +5962,13 @@
         <v>103</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D306" s="2">
-        <v>10547</v>
+        <v>18119</v>
       </c>
       <c r="E306" s="2">
-        <v>43782</v>
+        <v>160581</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -5883,30 +5979,29 @@
         <v>103</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D307" s="2">
-        <v>10071</v>
+        <v>963199</v>
       </c>
       <c r="E307" s="2">
-        <v>93569</v>
+        <v>16367537</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D308" s="2">
-        <v>9395</v>
-      </c>
-      <c r="E308" s="2">
-        <v>63438</v>
+      <c r="C308" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D308" s="4">
+        <f>SUM(D284:D306)-D307</f>
+        <v>0</v>
+      </c>
+      <c r="E308" s="4">
+        <f>SUM(E284:E306)-E307</f>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -5914,16 +6009,16 @@
         <v>126</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D309" s="2">
-        <v>18119</v>
+        <v>166973</v>
       </c>
       <c r="E309" s="2">
-        <v>160581</v>
+        <v>7388164</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -5931,32 +6026,33 @@
         <v>126</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D310" s="2">
-        <v>963199</v>
+        <v>98838</v>
       </c>
       <c r="E310" s="2">
-        <v>16367537</v>
+        <v>1173863</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D311" s="6">
-        <f>SUM(D287:D309)-D310</f>
-        <v>0</v>
-      </c>
-      <c r="E311" s="6">
-        <f>SUM(E287:E309)-E310</f>
-        <v>0</v>
+      <c r="B311" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2">
+        <v>75646</v>
+      </c>
+      <c r="E311" s="2">
+        <v>3551440</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -5967,13 +6063,13 @@
         <v>115</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D312" s="2">
-        <v>166973</v>
+        <v>60070</v>
       </c>
       <c r="E312" s="2">
-        <v>7388164</v>
+        <v>149503</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -5984,13 +6080,13 @@
         <v>115</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D313" s="2">
-        <v>98838</v>
+        <v>48432</v>
       </c>
       <c r="E313" s="2">
-        <v>1173863</v>
+        <v>91089</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6001,13 +6097,13 @@
         <v>115</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D314" s="2">
-        <v>75646</v>
+        <v>22616</v>
       </c>
       <c r="E314" s="2">
-        <v>3551440</v>
+        <v>128135</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6018,13 +6114,13 @@
         <v>115</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D315" s="2">
-        <v>60070</v>
+        <v>13511</v>
       </c>
       <c r="E315" s="2">
-        <v>149503</v>
+        <v>529835</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,13 +6131,13 @@
         <v>115</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D316" s="2">
-        <v>48432</v>
+        <v>11117</v>
       </c>
       <c r="E316" s="2">
-        <v>91089</v>
+        <v>46553</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -6052,13 +6148,13 @@
         <v>115</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D317" s="2">
-        <v>22616</v>
+        <v>5935</v>
       </c>
       <c r="E317" s="2">
-        <v>128135</v>
+        <v>474810</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -6069,13 +6165,13 @@
         <v>115</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D318" s="2">
-        <v>13511</v>
+        <v>7148</v>
       </c>
       <c r="E318" s="2">
-        <v>529835</v>
+        <v>41118</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -6086,30 +6182,29 @@
         <v>115</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D319" s="2">
-        <v>11117</v>
+        <v>510286</v>
       </c>
       <c r="E319" s="2">
-        <v>46553</v>
+        <v>13574510</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D320" s="2">
-        <v>5935</v>
-      </c>
-      <c r="E320" s="2">
-        <v>474810</v>
+      <c r="C320" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D320" s="4">
+        <f>SUM(D309:D318)-D319</f>
+        <v>0</v>
+      </c>
+      <c r="E320" s="4">
+        <f>SUM(E309:E318)-E319</f>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -6117,16 +6212,16 @@
         <v>126</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D321" s="2">
-        <v>7148</v>
+        <v>244778</v>
       </c>
       <c r="E321" s="2">
-        <v>41118</v>
+        <v>19582260</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -6134,32 +6229,33 @@
         <v>126</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D322" s="2">
-        <v>510286</v>
+        <v>76559</v>
       </c>
       <c r="E322" s="2">
-        <v>13574510</v>
+        <v>3002302</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D323" s="6">
-        <f>SUM(D312:D321)-D322</f>
-        <v>0</v>
-      </c>
-      <c r="E323" s="6">
-        <f>SUM(E312:E321)-E322</f>
-        <v>0</v>
+      <c r="B323" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" s="2">
+        <v>43875</v>
+      </c>
+      <c r="E323" s="2">
+        <v>2059840</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -6170,13 +6266,13 @@
         <v>118</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D324" s="2">
-        <v>244778</v>
+        <v>27944</v>
       </c>
       <c r="E324" s="2">
-        <v>19582260</v>
+        <v>52556</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -6187,13 +6283,13 @@
         <v>118</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D325" s="2">
-        <v>76559</v>
+        <v>17927</v>
       </c>
       <c r="E325" s="2">
-        <v>3002302</v>
+        <v>152874</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -6204,13 +6300,13 @@
         <v>118</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D326" s="2">
-        <v>43875</v>
+        <v>12566</v>
       </c>
       <c r="E326" s="2">
-        <v>2059840</v>
+        <v>556030</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -6221,13 +6317,13 @@
         <v>118</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D327" s="2">
-        <v>27944</v>
+        <v>6504</v>
       </c>
       <c r="E327" s="2">
-        <v>52556</v>
+        <v>56544</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -6238,30 +6334,29 @@
         <v>118</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D328" s="2">
-        <v>17927</v>
+        <v>430153</v>
       </c>
       <c r="E328" s="2">
-        <v>152874</v>
+        <v>25462406</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D329" s="2">
-        <v>12566</v>
-      </c>
-      <c r="E329" s="2">
-        <v>556030</v>
+      <c r="C329" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D329" s="4">
+        <f>SUM(D321:D327)-D328</f>
+        <v>0</v>
+      </c>
+      <c r="E329" s="4">
+        <f>SUM(E321:E327)-E328</f>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,16 +6364,16 @@
         <v>126</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D330" s="2">
-        <v>6504</v>
+        <v>99931</v>
       </c>
       <c r="E330" s="2">
-        <v>56544</v>
+        <v>4691583</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -6286,32 +6381,33 @@
         <v>126</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D331" s="2">
-        <v>430153</v>
+        <v>89027</v>
       </c>
       <c r="E331" s="2">
-        <v>25462406</v>
+        <v>7122145</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C332" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D332" s="6">
-        <f>SUM(D324:D330)-D331</f>
-        <v>0</v>
-      </c>
-      <c r="E332" s="6">
-        <f>SUM(E324:E330)-E331</f>
-        <v>0</v>
+      <c r="B332" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D332" s="2">
+        <v>79591</v>
+      </c>
+      <c r="E332" s="2">
+        <v>3521725</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6322,13 +6418,13 @@
         <v>119</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D333" s="2">
-        <v>99931</v>
+        <v>5559</v>
       </c>
       <c r="E333" s="2">
-        <v>4691583</v>
+        <v>152300</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6339,13 +6435,13 @@
         <v>119</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D334" s="2">
-        <v>89027</v>
+        <v>969</v>
       </c>
       <c r="E334" s="2">
-        <v>7122145</v>
+        <v>37992</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6356,30 +6452,29 @@
         <v>119</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D335" s="2">
-        <v>79591</v>
+        <v>275077</v>
       </c>
       <c r="E335" s="2">
-        <v>3521725</v>
+        <v>15525745</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D336" s="2">
-        <v>5559</v>
-      </c>
-      <c r="E336" s="2">
-        <v>152300</v>
+      <c r="C336" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D336" s="4">
+        <f>SUM(D330:D334)-D335</f>
+        <v>0</v>
+      </c>
+      <c r="E336" s="4">
+        <f>SUM(E330:E334)-E335</f>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6387,16 +6482,16 @@
         <v>126</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D337" s="2">
-        <v>969</v>
+        <v>61804</v>
       </c>
       <c r="E337" s="2">
-        <v>37992</v>
+        <v>116656</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -6404,32 +6499,33 @@
         <v>126</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D338" s="2">
-        <v>275077</v>
+        <v>56884</v>
       </c>
       <c r="E338" s="2">
-        <v>15525745</v>
+        <v>309972</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C339" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D339" s="6">
-        <f>SUM(D333:D337)-D338</f>
-        <v>0</v>
-      </c>
-      <c r="E339" s="6">
-        <f>SUM(E333:E337)-E338</f>
-        <v>0</v>
+      <c r="B339" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D339" s="2">
+        <v>14734</v>
+      </c>
+      <c r="E339" s="2">
+        <v>23601</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,13 +6536,13 @@
         <v>121</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D340" s="2">
-        <v>61804</v>
+        <v>9783</v>
       </c>
       <c r="E340" s="2">
-        <v>116656</v>
+        <v>455040</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -6457,13 +6553,13 @@
         <v>121</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D341" s="2">
-        <v>56884</v>
+        <v>44918</v>
       </c>
       <c r="E341" s="2">
-        <v>309972</v>
+        <v>170857</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -6474,30 +6570,29 @@
         <v>121</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D342" s="2">
-        <v>14734</v>
+        <v>188123</v>
       </c>
       <c r="E342" s="2">
-        <v>23601</v>
+        <v>1076126</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D343" s="2">
-        <v>9783</v>
-      </c>
-      <c r="E343" s="2">
-        <v>455040</v>
+      <c r="C343" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D343" s="4">
+        <f>SUM(D337:D341)-D342</f>
+        <v>0</v>
+      </c>
+      <c r="E343" s="4">
+        <f>SUM(E337:E341)-E342</f>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -6505,16 +6600,16 @@
         <v>126</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D344" s="2">
-        <v>44918</v>
+        <v>33375</v>
       </c>
       <c r="E344" s="2">
-        <v>170857</v>
+        <v>2669995</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,32 +6617,33 @@
         <v>126</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D345" s="2">
-        <v>188123</v>
+        <v>10151</v>
       </c>
       <c r="E345" s="2">
-        <v>1076126</v>
+        <v>398089</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C346" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D346" s="6">
-        <f>SUM(D340:D344)-D345</f>
-        <v>0</v>
-      </c>
-      <c r="E346" s="6">
-        <f>SUM(E340:E344)-E345</f>
-        <v>0</v>
+      <c r="B346" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D346" s="2">
+        <v>9880</v>
+      </c>
+      <c r="E346" s="2">
+        <v>18581</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,13 +6654,13 @@
         <v>123</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D347" s="2">
-        <v>33375</v>
+        <v>13636</v>
       </c>
       <c r="E347" s="2">
-        <v>2669995</v>
+        <v>303979</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,30 +6671,29 @@
         <v>123</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D348" s="2">
-        <v>10151</v>
+        <v>67042</v>
       </c>
       <c r="E348" s="2">
-        <v>398089</v>
+        <v>3390644</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D349" s="2">
-        <v>9880</v>
-      </c>
-      <c r="E349" s="2">
-        <v>18581</v>
+      <c r="C349" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D349" s="4">
+        <f>SUM(D344:D347)-D348</f>
+        <v>0</v>
+      </c>
+      <c r="E349" s="4">
+        <f>SUM(E344:E347)-E348</f>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -6606,16 +6701,16 @@
         <v>126</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D350" s="2">
-        <v>13636</v>
+        <v>5908</v>
       </c>
       <c r="E350" s="2">
-        <v>303979</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -6623,49 +6718,49 @@
         <v>126</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D351" s="2">
-        <v>67042</v>
+        <v>4532</v>
       </c>
       <c r="E351" s="2">
-        <v>3390644</v>
+        <v>62096</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C352" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D352" s="6">
-        <f>SUM(D347:D350)-D351</f>
-        <v>0</v>
-      </c>
-      <c r="E352" s="6">
-        <f>SUM(E347:E350)-E351</f>
-        <v>0</v>
+      <c r="B352" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="2">
+        <v>10440</v>
+      </c>
+      <c r="E352" s="2">
+        <v>73207</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D353" s="2">
-        <v>5908</v>
-      </c>
-      <c r="E353" s="2">
-        <v>11111</v>
+      <c r="C353" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D353" s="4">
+        <f>SUM(D350:D351)-D352</f>
+        <v>0</v>
+      </c>
+      <c r="E353" s="4">
+        <f>SUM(E350:E351)-E352</f>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -6673,16 +6768,16 @@
         <v>126</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D354" s="2">
-        <v>4532</v>
+        <v>5457</v>
       </c>
       <c r="E354" s="2">
-        <v>62096</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -6690,668 +6785,624 @@
         <v>126</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="D355" s="2">
-        <v>10440</v>
+        <v>3618</v>
       </c>
       <c r="E355" s="2">
-        <v>73207</v>
+        <v>27957</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D356" s="6">
-        <f>SUM(D353:D354)-D355</f>
-        <v>0</v>
-      </c>
-      <c r="E356" s="6">
-        <f>SUM(E353:E354)-E355</f>
-        <v>0</v>
+      <c r="B356" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="2">
+        <v>9075</v>
+      </c>
+      <c r="E356" s="2">
+        <v>38220</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D357" s="2">
-        <v>5457</v>
-      </c>
-      <c r="E357" s="2">
-        <v>10263</v>
+      <c r="C357" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D357" s="4">
+        <f>SUM(D354:D355)-D356</f>
+        <v>0</v>
+      </c>
+      <c r="E357" s="4">
+        <f>SUM(E354:E355)-E356</f>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D358" s="2">
-        <v>3618</v>
+        <v>19082960</v>
       </c>
       <c r="E358" s="2">
-        <v>27957</v>
+        <v>144645675</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D359" s="2">
-        <v>9075</v>
+        <v>8648882</v>
       </c>
       <c r="E359" s="2">
-        <v>38220</v>
+        <v>63965600</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D360" s="6">
-        <f>SUM(D357:D358)-D359</f>
-        <v>0</v>
-      </c>
-      <c r="E360" s="6">
-        <f>SUM(E357:E358)-E359</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="2">
+        <v>7024702</v>
+      </c>
+      <c r="E360" s="2">
+        <v>60803098</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D361" s="2">
+        <v>2916242</v>
+      </c>
+      <c r="E361" s="2">
+        <v>16732918</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D362" s="2">
-        <v>19082960</v>
+        <v>121546</v>
       </c>
       <c r="E362" s="2">
-        <v>144645675</v>
+        <v>925714</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D363" s="2">
+        <v>84110</v>
+      </c>
+      <c r="E363" s="2">
+        <v>372320</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D364" s="2">
-        <v>8648882</v>
+        <v>56454</v>
       </c>
       <c r="E364" s="2">
-        <v>63965600</v>
+        <v>105719</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D365" s="2">
-        <v>7024702</v>
+        <v>32753</v>
       </c>
       <c r="E365" s="2">
-        <v>60803098</v>
+        <v>148204</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D366" s="2">
-        <v>2916242</v>
+        <v>30986</v>
       </c>
       <c r="E366" s="2">
-        <v>16732918</v>
+        <v>183132</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D367" s="2">
-        <v>121546</v>
+        <v>25942</v>
       </c>
       <c r="E367" s="2">
-        <v>925714</v>
+        <v>351149</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D368" s="2">
-        <v>84110</v>
+        <v>20733</v>
       </c>
       <c r="E368" s="2">
-        <v>372320</v>
+        <v>49910</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D369" s="2">
-        <v>56454</v>
+        <v>17501</v>
       </c>
       <c r="E369" s="2">
-        <v>105719</v>
+        <v>178829</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D370" s="2">
-        <v>32753</v>
+        <v>9689</v>
       </c>
       <c r="E370" s="2">
-        <v>148204</v>
+        <v>26683</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D371" s="2">
-        <v>30986</v>
+        <v>7305</v>
       </c>
       <c r="E371" s="2">
-        <v>183132</v>
+        <v>36251</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D372" s="2">
-        <v>25942</v>
+        <v>7139</v>
       </c>
       <c r="E372" s="2">
-        <v>351149</v>
+        <v>97927</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D373" s="2">
-        <v>20733</v>
+        <v>6023</v>
       </c>
       <c r="E373" s="2">
-        <v>49910</v>
+        <v>71314</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D374" s="2">
-        <v>17501</v>
+        <v>18453</v>
       </c>
       <c r="E374" s="2">
-        <v>178829</v>
+        <v>446270</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="D375" s="2">
-        <v>9689</v>
+        <v>19028460</v>
       </c>
       <c r="E375" s="2">
-        <v>26683</v>
+        <v>144495038</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D376" s="2">
-        <v>7305</v>
-      </c>
-      <c r="E376" s="2">
-        <v>36251</v>
+        <v>137</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D376" s="4">
+        <f>SUM(D359:D374)-D375</f>
+        <v>0</v>
+      </c>
+      <c r="E376" s="4">
+        <f>SUM(E359:E374)-E375</f>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="D377" s="2">
-        <v>7139</v>
+        <v>18293</v>
       </c>
       <c r="E377" s="2">
-        <v>97927</v>
+        <v>34257</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D378" s="2">
-        <v>6023</v>
+        <v>18293</v>
       </c>
       <c r="E378" s="2">
-        <v>71314</v>
+        <v>34257</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D379" s="2">
-        <v>18453</v>
-      </c>
-      <c r="E379" s="2">
-        <v>446270</v>
+        <v>137</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D379" s="4">
+        <v>0</v>
+      </c>
+      <c r="E379" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D380" s="2">
-        <v>19028460</v>
+        <v>8039</v>
       </c>
       <c r="E380" s="2">
-        <v>144495038</v>
+        <v>15054</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D381" s="4">
-        <f>SUM(D364:D379)-D380</f>
-        <v>0</v>
-      </c>
-      <c r="E381" s="4">
-        <f>SUM(E364:E379)-E380</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="2">
+        <v>5678</v>
+      </c>
+      <c r="E381" s="2">
+        <v>38318</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D382" s="2">
-        <v>18293</v>
+        <v>13717</v>
       </c>
       <c r="E382" s="2">
-        <v>34257</v>
+        <v>53372</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D383" s="2">
-        <v>18293</v>
-      </c>
-      <c r="E383" s="2">
-        <v>34257</v>
+        <v>137</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D383" s="4">
+        <f>SUM(D380:D381)-D382</f>
+        <v>0</v>
+      </c>
+      <c r="E383" s="4">
+        <f>SUM(E380:E381)-E382</f>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D384" s="2">
+        <v>11622</v>
+      </c>
+      <c r="E384" s="2">
+        <v>21764</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D385" s="2">
-        <v>8039</v>
+        <v>50</v>
       </c>
       <c r="E385" s="2">
-        <v>15054</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D386" s="2">
-        <v>5678</v>
+        <v>11672</v>
       </c>
       <c r="E386" s="2">
-        <v>38318</v>
+        <v>21984</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D387" s="2">
-        <v>13717</v>
-      </c>
-      <c r="E387" s="2">
-        <v>53372</v>
+        <v>137</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D387" s="4">
+        <f>SUM(D384:D385)-D386</f>
+        <v>0</v>
+      </c>
+      <c r="E387" s="4">
+        <f>SUM(E384:E385)-E386</f>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D388" s="4">
-        <f>SUM(D385:D386)-D387</f>
-        <v>0</v>
-      </c>
-      <c r="E388" s="4">
-        <f>SUM(E385:E386)-E387</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D388" s="2">
+        <v>7255</v>
+      </c>
+      <c r="E388" s="2">
+        <v>13586</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D389" s="2">
-        <v>11622</v>
+        <v>3563</v>
       </c>
       <c r="E389" s="2">
-        <v>21764</v>
+        <v>27438</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D390" s="2">
-        <v>50</v>
+        <v>10818</v>
       </c>
       <c r="E390" s="2">
-        <v>220</v>
+        <v>41024</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D391" s="2">
-        <v>11672</v>
-      </c>
-      <c r="E391" s="2">
-        <v>21984</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C392" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D392" s="4">
-        <f>SUM(D389:D390)-D391</f>
-        <v>0</v>
-      </c>
-      <c r="E392" s="4">
-        <f>SUM(E389:E390)-E391</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D393" s="2">
-        <v>7255</v>
-      </c>
-      <c r="E393" s="2">
-        <v>13586</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D394" s="2">
-        <v>3563</v>
-      </c>
-      <c r="E394" s="2">
-        <v>27438</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D395" s="2">
-        <v>10818</v>
-      </c>
-      <c r="E395" s="2">
-        <v>41024</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D396" s="4">
-        <f>SUM(D393:D394)-D395</f>
-        <v>0</v>
-      </c>
-      <c r="E396" s="4">
-        <f>SUM(E393:E394)-E395</f>
+      <c r="D391" s="4">
+        <f>SUM(D388:D389)-D390</f>
+        <v>0</v>
+      </c>
+      <c r="E391" s="4">
+        <f>SUM(E388:E389)-E390</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E391" xr:uid="{828EEC29-C769-1B4E-9F1F-B7C46ADD98D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3EB8B-AB3A-8B46-8E4C-B1613D6F9665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB38285-0A46-FB4D-8DB7-A77655C56CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="1480" windowWidth="23040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/Tables43-49.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb105/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C429D-8C24-DD4B-ABF3-CA2F7AD62DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB38285-0A46-FB4D-8DB7-A77655C56CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="1180" windowWidth="23040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23300" yWindow="1480" windowWidth="23040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$391</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="165">
   <si>
     <t>Jack mackerel</t>
   </si>
@@ -433,15 +436,9 @@
     <t xml:space="preserve">Totals </t>
   </si>
   <si>
-    <t xml:space="preserve">All other   </t>
-  </si>
-  <si>
     <t>Table 49</t>
   </si>
   <si>
-    <t>Eureka regiou totals</t>
-  </si>
-  <si>
     <t>Eureka</t>
   </si>
   <si>
@@ -500,13 +497,34 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>Eureka region totals</t>
+  </si>
+  <si>
+    <t>Sacramento region</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>Santa Barbara region</t>
+  </si>
+  <si>
+    <t>Los Angeles region</t>
+  </si>
+  <si>
+    <t>San Diego region</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -520,12 +538,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -549,15 +561,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,8 +892,8 @@
     <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -899,1150 +908,1170 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" s="7">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>4493341</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>37670746</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>849824</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2400142</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7">
-        <v>849824</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2400142</v>
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>344362</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2431933</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>344362</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2431933</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>134196</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2727555</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
-        <v>134196</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2727555</v>
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2">
+        <v>72725</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4381050</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="7">
-        <v>72725</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4381050</v>
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2">
+        <v>49479</v>
+      </c>
+      <c r="E7" s="2">
+        <v>348447</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="7">
-        <v>49479</v>
-      </c>
-      <c r="E8" s="7">
-        <v>348447</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42341</v>
+      </c>
+      <c r="E8" s="2">
+        <v>654421</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42341</v>
-      </c>
-      <c r="E9" s="7">
-        <v>654421</v>
+        <v>155</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37057</v>
+      </c>
+      <c r="E9" s="2">
+        <v>371310</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7">
-        <v>37057</v>
-      </c>
-      <c r="E10" s="7">
-        <v>371310</v>
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32208</v>
+      </c>
+      <c r="E10" s="2">
+        <v>932577</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7">
-        <v>32208</v>
-      </c>
-      <c r="E11" s="7">
-        <v>932577</v>
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18026</v>
+      </c>
+      <c r="E11" s="2">
+        <v>210832</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7">
-        <v>18026</v>
-      </c>
-      <c r="E12" s="7">
-        <v>210832</v>
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10410</v>
+      </c>
+      <c r="E12" s="2">
+        <v>185225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10410</v>
-      </c>
-      <c r="E13" s="7">
-        <v>185225</v>
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9505</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37702</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7">
-        <v>9505</v>
-      </c>
-      <c r="E14" s="7">
-        <v>37702</v>
+      <c r="D14" s="2">
+        <v>8052</v>
+      </c>
+      <c r="E14" s="2">
+        <v>54810</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8052</v>
-      </c>
-      <c r="E15" s="7">
-        <v>54810</v>
+        <v>155</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6676</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80525</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6676</v>
-      </c>
-      <c r="E16" s="7">
-        <v>80525</v>
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15413</v>
+      </c>
+      <c r="E16" s="2">
+        <v>359571</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15413</v>
-      </c>
-      <c r="E17" s="7">
-        <v>359571</v>
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1630274</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15176100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1630274</v>
-      </c>
-      <c r="E18" s="7">
-        <v>15176100</v>
+        <v>155</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D3:D16)-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>SUM(E3:E16)-E17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="6">
-        <f>SUM(D4:D17)-D18</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <f>SUM(E4:E17)-E18</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>883444</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2506058</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7">
-        <v>883444</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2506058</v>
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>102512</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2083574</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7">
-        <v>102512</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2083574</v>
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <v>67665</v>
+      </c>
+      <c r="E21" s="2">
+        <v>791406</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="7">
-        <v>67665</v>
-      </c>
-      <c r="E22" s="7">
-        <v>791406</v>
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32373</v>
+      </c>
+      <c r="E22" s="2">
+        <v>324378</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7">
-        <v>32373</v>
-      </c>
-      <c r="E23" s="7">
-        <v>324378</v>
+        <v>155</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2">
+        <v>26994</v>
+      </c>
+      <c r="E23" s="2">
+        <v>896246</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="7">
-        <v>26994</v>
-      </c>
-      <c r="E24" s="7">
-        <v>896246</v>
+        <v>155</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22740</v>
+      </c>
+      <c r="E24" s="2">
+        <v>351465</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7">
-        <v>22740</v>
-      </c>
-      <c r="E25" s="7">
-        <v>351465</v>
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14916</v>
+      </c>
+      <c r="E25" s="2">
+        <v>179929</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7">
-        <v>14916</v>
-      </c>
-      <c r="E26" s="7">
-        <v>179929</v>
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11160</v>
+      </c>
+      <c r="E26" s="2">
+        <v>78815</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7">
-        <v>11160</v>
-      </c>
-      <c r="E27" s="7">
-        <v>78815</v>
+        <v>155</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9626</v>
+      </c>
+      <c r="E27" s="2">
+        <v>67791</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7">
-        <v>9626</v>
-      </c>
-      <c r="E28" s="7">
-        <v>67791</v>
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7591</v>
+      </c>
+      <c r="E28" s="2">
+        <v>135075</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7591</v>
-      </c>
-      <c r="E29" s="7">
-        <v>135075</v>
+      <c r="D29" s="2">
+        <v>7150</v>
+      </c>
+      <c r="E29" s="2">
+        <v>370450</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7150</v>
-      </c>
-      <c r="E30" s="7">
-        <v>370450</v>
+        <v>155</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6737</v>
+      </c>
+      <c r="E30" s="2">
+        <v>384982</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="7">
-        <v>6737</v>
-      </c>
-      <c r="E31" s="7">
-        <v>384982</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8401</v>
+      </c>
+      <c r="E31" s="2">
+        <v>142882</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>8401</v>
-      </c>
-      <c r="E32" s="7">
-        <v>142882</v>
+        <v>155</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1201309</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8313051</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1201309</v>
-      </c>
-      <c r="E33" s="7">
-        <v>8313051</v>
+        <v>155</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(D19:D31)-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f>SUM(E19:E31)-E32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="6">
-        <f>SUM(D20:D32)-D33</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <f>SUM(E20:E32)-E33</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2">
+        <v>532314</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3759281</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="7">
-        <v>532314</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3759281</v>
+        <v>155</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>429418</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1212460</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7">
-        <v>429418</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1212460</v>
+      <c r="D36" s="2">
+        <v>78472</v>
+      </c>
+      <c r="E36" s="2">
+        <v>880713</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="7">
-        <v>78472</v>
-      </c>
-      <c r="E37" s="7">
-        <v>880713</v>
+        <v>155</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12465</v>
+      </c>
+      <c r="E37" s="2">
+        <v>87784</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="7">
-        <v>12465</v>
-      </c>
-      <c r="E38" s="7">
-        <v>87784</v>
+        <v>155</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>13130</v>
+      </c>
+      <c r="E38" s="2">
+        <v>194530</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
-        <v>13130</v>
-      </c>
-      <c r="E39" s="7">
-        <v>194530</v>
+        <v>155</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1065799</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6134768</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1065799</v>
-      </c>
-      <c r="E40" s="7">
-        <v>6134768</v>
+        <v>155</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="4">
+        <f>SUM(D34:D38)-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f>SUM(E34:E38)-E39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="6">
-        <f>SUM(D35:D39)-D40</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <f>SUM(E35:E39)-E40</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2">
+        <v>143890</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1016173</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7">
-        <v>143890</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1016173</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2">
+        <v>112247</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2281451</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="7">
-        <v>112247</v>
-      </c>
-      <c r="E43" s="7">
-        <v>2281451</v>
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="2">
+        <v>55110</v>
+      </c>
+      <c r="E43" s="2">
+        <v>552207</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="7">
-        <v>55110</v>
-      </c>
-      <c r="E44" s="7">
-        <v>552207</v>
+        <v>155</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="2">
+        <v>41540</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1243937</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="7">
-        <v>41540</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1243937</v>
+        <v>155</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20618</v>
+      </c>
+      <c r="E45" s="2">
+        <v>318664</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="7">
-        <v>20618</v>
-      </c>
-      <c r="E46" s="7">
-        <v>318664</v>
+        <v>155</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12689</v>
+      </c>
+      <c r="E46" s="2">
+        <v>657470</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="7">
-        <v>12689</v>
-      </c>
-      <c r="E47" s="7">
-        <v>657470</v>
+      <c r="D47" s="2">
+        <v>11876</v>
+      </c>
+      <c r="E47" s="2">
+        <v>678645</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="7">
-        <v>11876</v>
-      </c>
-      <c r="E48" s="7">
-        <v>678645</v>
+        <v>155</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8223</v>
+      </c>
+      <c r="E48" s="2">
+        <v>96181</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="7">
-        <v>8223</v>
-      </c>
-      <c r="E49" s="7">
-        <v>96181</v>
+        <v>155</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>142312</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="7">
-        <v>7998</v>
-      </c>
-      <c r="E50" s="7">
-        <v>142312</v>
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5642</v>
+      </c>
+      <c r="E50" s="2">
+        <v>68060</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="7">
-        <v>5642</v>
-      </c>
-      <c r="E51" s="7">
-        <v>68060</v>
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7397</v>
+      </c>
+      <c r="E51" s="2">
+        <v>67376</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="7">
-        <v>7397</v>
-      </c>
-      <c r="E52" s="7">
-        <v>67376</v>
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>427230</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7122476</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="7">
-        <v>427230</v>
-      </c>
-      <c r="E53" s="7">
-        <v>7122476</v>
+        <v>155</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4">
+        <f>SUM(D41:D51)-D52</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f>SUM(E41:E51)-E52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="6">
-        <f>SUM(D42:D52)-D53</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <f>SUM(E42:E52)-E53</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2">
+        <v>97164</v>
+      </c>
+      <c r="E54" s="2">
+        <v>686183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="7">
-        <v>97164</v>
-      </c>
-      <c r="E55" s="7">
-        <v>686183</v>
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4587</v>
+      </c>
+      <c r="E55" s="2">
+        <v>13357</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7">
-        <v>4587</v>
-      </c>
-      <c r="E56" s="7">
-        <v>13357</v>
+        <v>155</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>101751</v>
+      </c>
+      <c r="E56" s="2">
+        <v>699540</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="7">
-        <v>101751</v>
-      </c>
-      <c r="E57" s="7">
-        <v>699540</v>
+        <v>155</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="4">
+        <f>SUM(D54:D55)-D56</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f>SUM(E54:E55)-E56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="6">
-        <f>SUM(D55:D56)-D57</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <f>SUM(E55:E56)-E57</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <v>30977</v>
+      </c>
+      <c r="E58" s="2">
+        <v>87493</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="7">
-        <v>30977</v>
-      </c>
-      <c r="E59" s="7">
-        <v>87493</v>
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2376</v>
+      </c>
+      <c r="E59" s="2">
+        <v>16935</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" t="s">
         <v>155</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7">
-        <v>2376</v>
-      </c>
-      <c r="E60" s="7">
-        <v>16935</v>
+      <c r="B60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>33353</v>
+      </c>
+      <c r="E60" s="2">
+        <v>104428</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" t="s">
         <v>155</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="7">
-        <v>33353</v>
-      </c>
-      <c r="E61" s="7">
-        <v>104428</v>
+      <c r="C61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="4">
+        <f>SUM(D58:D59)-D60</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <f>SUM(E58:E59)-E60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="6">
-        <f>SUM(D59:D60)-D61</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
-        <f>SUM(E59:E60)-E61</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2">
+        <v>29115</v>
+      </c>
+      <c r="E62" s="2">
+        <v>82273</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="7">
-        <v>29115</v>
-      </c>
-      <c r="E63" s="7">
-        <v>82273</v>
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>173</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1969</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7">
-        <v>173</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1969</v>
+        <v>155</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>29288</v>
+      </c>
+      <c r="E64" s="2">
+        <v>84242</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="7">
-        <v>29288</v>
-      </c>
-      <c r="E65" s="7">
-        <v>84242</v>
+        <v>155</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="4">
+        <f>SUM(D62:D63)-D64</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f>SUM(E62:E63)-E64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="6">
-        <f>SUM(D63:D64)-D65</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <f>SUM(E63:E64)-E65</f>
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4337</v>
+      </c>
+      <c r="E66" s="2">
+        <v>36141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
         <v>4337</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="2">
         <v>36141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="7">
-        <v>4337</v>
-      </c>
-      <c r="E68" s="7">
-        <v>36141</v>
+      <c r="D69" s="2">
+        <v>457780</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2502794</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D70" s="2">
-        <v>457780</v>
+        <v>176274</v>
       </c>
       <c r="E70" s="2">
-        <v>2502794</v>
+        <v>555019</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,13 +2082,13 @@
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D71" s="2">
-        <v>176274</v>
+        <v>16618</v>
       </c>
       <c r="E71" s="2">
-        <v>555019</v>
+        <v>265319</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,13 +2099,13 @@
         <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>16618</v>
+        <v>57</v>
       </c>
       <c r="E72" s="2">
-        <v>265319</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2087,43 +2116,43 @@
         <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2">
-        <v>57</v>
+        <v>192949</v>
       </c>
       <c r="E73" s="2">
-        <v>1213</v>
+        <v>821551</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4">
+        <f>SUM(D70:D72)-D73</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <f>SUM(E70:E72)-E73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2">
-        <v>192949</v>
-      </c>
-      <c r="E74" s="2">
-        <v>821551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="4">
-        <f>SUM(D71:D73)-D74</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <f>SUM(E71:E73)-E74</f>
-        <v>0</v>
+      <c r="B75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2">
+        <v>57581</v>
+      </c>
+      <c r="E75" s="2">
+        <v>181301</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,13 +2163,13 @@
         <v>64</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>57581</v>
+        <v>17956</v>
       </c>
       <c r="E76" s="2">
-        <v>181301</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2151,13 +2180,13 @@
         <v>64</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>17956</v>
+        <v>5434</v>
       </c>
       <c r="E77" s="2">
-        <v>42250</v>
+        <v>90261</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,13 +2197,13 @@
         <v>64</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>5434</v>
+        <v>5399</v>
       </c>
       <c r="E78" s="2">
-        <v>90261</v>
+        <v>128545</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,13 +2214,13 @@
         <v>64</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>5399</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
-        <v>128545</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2202,43 +2231,43 @@
         <v>64</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2">
-        <v>2</v>
+        <v>86372</v>
       </c>
       <c r="E80" s="2">
-        <v>17</v>
+        <v>442374</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="C81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="4">
+        <f>SUM(D75:D79)-D80</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f>SUM(E75:E79)-E80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>86372</v>
-      </c>
-      <c r="E81" s="2">
-        <v>442374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="4">
-        <f>SUM(D76:D80)-D81</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <f>SUM(E76:E80)-E81</f>
-        <v>0</v>
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2">
+        <v>50881</v>
+      </c>
+      <c r="E82" s="2">
+        <v>160203</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,13 +2278,13 @@
         <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2">
-        <v>50881</v>
+        <v>1860</v>
       </c>
       <c r="E83" s="2">
-        <v>160203</v>
+        <v>28120</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,43 +2295,43 @@
         <v>93</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2">
-        <v>1860</v>
+        <v>52741</v>
       </c>
       <c r="E84" s="2">
-        <v>28120</v>
+        <v>188323</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4">
+        <f>SUM(D82:D83)-D84</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f>SUM(E82:E83)-E84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2">
-        <v>52741</v>
-      </c>
-      <c r="E85" s="2">
-        <v>188323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="4">
-        <f>SUM(D83:D84)-D85</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="4">
-        <f>SUM(E83:E84)-E85</f>
-        <v>0</v>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2">
+        <v>42061</v>
+      </c>
+      <c r="E86" s="2">
+        <v>132433</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2313,13 +2342,13 @@
         <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
-        <v>42061</v>
+        <v>3371</v>
       </c>
       <c r="E87" s="2">
-        <v>132433</v>
+        <v>47530</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2330,43 +2359,43 @@
         <v>92</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2">
-        <v>3371</v>
+        <v>45432</v>
       </c>
       <c r="E88" s="2">
-        <v>47530</v>
+        <v>179963</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4">
+        <f>SUM(D86:D87)-D88</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <f>SUM(E86:E87)-E88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45432</v>
-      </c>
-      <c r="E89" s="2">
-        <v>179963</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="4">
-        <f>SUM(D87:D88)-D89</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <f>SUM(E87:E88)-E89</f>
-        <v>0</v>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2">
+        <v>35136</v>
+      </c>
+      <c r="E90" s="2">
+        <v>110629</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,7 +2406,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2">
         <v>35136</v>
@@ -2387,28 +2416,32 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="C92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2">
-        <v>35136</v>
-      </c>
-      <c r="E92" s="2">
-        <v>110629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>22943</v>
+      </c>
+      <c r="E93" s="2">
+        <v>546260</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -2418,13 +2451,13 @@
         <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>22943</v>
+        <v>10774</v>
       </c>
       <c r="E94" s="2">
-        <v>546260</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,43 +2468,43 @@
         <v>90</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>33717</v>
+      </c>
+      <c r="E95" s="2">
+        <v>571610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4">
+        <f>SUM(D93:D94)-D95</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f>SUM(E93:E94)-E95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="2">
-        <v>10774</v>
-      </c>
-      <c r="E95" s="2">
-        <v>25350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2">
-        <v>33717</v>
-      </c>
-      <c r="E96" s="2">
-        <v>571610</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C97" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="4">
-        <f>SUM(D94:D95)-D96</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="4">
-        <f>SUM(E94:E95)-E96</f>
-        <v>0</v>
+      <c r="D97" s="2">
+        <v>3889</v>
+      </c>
+      <c r="E97" s="2">
+        <v>9150</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,13 +2515,13 @@
         <v>89</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2">
-        <v>3889</v>
+        <v>3883</v>
       </c>
       <c r="E98" s="2">
-        <v>9150</v>
+        <v>92442</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2499,13 +2532,13 @@
         <v>89</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>3883</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2">
-        <v>92442</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,43 +2549,43 @@
         <v>89</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" s="2">
-        <v>22</v>
+        <v>7794</v>
       </c>
       <c r="E100" s="2">
-        <v>110</v>
+        <v>101702</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="C101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="4">
+        <f>SUM(D97:D99)-D100</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <f>SUM(E97:E99)-E100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2">
-        <v>7794</v>
-      </c>
-      <c r="E101" s="2">
-        <v>101702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C102" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="4">
-        <f>SUM(D98:D100)-D101</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <f>SUM(E98:E100)-E101</f>
-        <v>0</v>
+      <c r="B102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3639</v>
+      </c>
+      <c r="E102" s="2">
+        <v>86642</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2563,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D103" s="2">
         <v>3639</v>
@@ -2573,28 +2606,32 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="2">
-        <v>3639</v>
-      </c>
-      <c r="E104" s="2">
-        <v>86642</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C105" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="2">
+        <v>5071091</v>
+      </c>
+      <c r="E105" s="2">
+        <v>39158735</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -2604,13 +2641,13 @@
         <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2">
-        <v>5071091</v>
+        <v>1357585</v>
       </c>
       <c r="E106" s="2">
-        <v>39158735</v>
+        <v>9531726</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,13 +2658,13 @@
         <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>1357585</v>
+        <v>899001</v>
       </c>
       <c r="E107" s="2">
-        <v>9531726</v>
+        <v>5114208</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2638,13 +2675,13 @@
         <v>87</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2">
-        <v>899001</v>
+        <v>365824</v>
       </c>
       <c r="E108" s="2">
-        <v>5114208</v>
+        <v>3444675</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2655,13 +2692,13 @@
         <v>87</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2">
-        <v>365824</v>
+        <v>237868</v>
       </c>
       <c r="E109" s="2">
-        <v>3444675</v>
+        <v>681591</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2672,13 +2709,13 @@
         <v>87</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>237868</v>
+        <v>87877</v>
       </c>
       <c r="E110" s="2">
-        <v>681591</v>
+        <v>2262881</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2689,13 +2726,13 @@
         <v>87</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2">
-        <v>87877</v>
+        <v>75743</v>
       </c>
       <c r="E111" s="2">
-        <v>2262881</v>
+        <v>1283786</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2706,13 +2743,13 @@
         <v>87</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2">
-        <v>75743</v>
+        <v>70457</v>
       </c>
       <c r="E112" s="2">
-        <v>1283786</v>
+        <v>994873</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2723,13 +2760,13 @@
         <v>87</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2">
-        <v>70457</v>
+        <v>56195</v>
       </c>
       <c r="E113" s="2">
-        <v>994873</v>
+        <v>638584</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2740,13 +2777,13 @@
         <v>87</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2">
-        <v>56195</v>
+        <v>50918</v>
       </c>
       <c r="E114" s="2">
-        <v>638584</v>
+        <v>493713</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2757,13 +2794,13 @@
         <v>87</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D115" s="2">
-        <v>50918</v>
+        <v>38405</v>
       </c>
       <c r="E115" s="2">
-        <v>493713</v>
+        <v>36576</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2774,13 +2811,13 @@
         <v>87</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2">
-        <v>38405</v>
+        <v>37525</v>
       </c>
       <c r="E116" s="2">
-        <v>36576</v>
+        <v>1048190</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,13 +2828,13 @@
         <v>87</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2">
-        <v>37525</v>
+        <v>23690</v>
       </c>
       <c r="E117" s="2">
-        <v>1048190</v>
+        <v>313360</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2808,13 +2845,13 @@
         <v>87</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2">
-        <v>23690</v>
+        <v>19859</v>
       </c>
       <c r="E118" s="2">
-        <v>313360</v>
+        <v>406122</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2825,13 +2862,13 @@
         <v>87</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" s="2">
-        <v>19859</v>
+        <v>16846</v>
       </c>
       <c r="E119" s="2">
-        <v>406122</v>
+        <v>338267</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,13 +2879,13 @@
         <v>87</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2">
-        <v>16846</v>
+        <v>11998</v>
       </c>
       <c r="E120" s="2">
-        <v>338267</v>
+        <v>181246</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2859,13 +2896,13 @@
         <v>87</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D121" s="2">
-        <v>11998</v>
+        <v>11938</v>
       </c>
       <c r="E121" s="2">
-        <v>181246</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2876,13 +2913,13 @@
         <v>87</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>11938</v>
+        <v>7760</v>
       </c>
       <c r="E122" s="2">
-        <v>45916</v>
+        <v>387981</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2893,13 +2930,13 @@
         <v>87</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
-        <v>7760</v>
+        <v>6736</v>
       </c>
       <c r="E123" s="2">
-        <v>387981</v>
+        <v>73793</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,13 +2947,13 @@
         <v>87</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
-        <v>6736</v>
+        <v>5576</v>
       </c>
       <c r="E124" s="2">
-        <v>73793</v>
+        <v>131506</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2927,13 +2964,13 @@
         <v>87</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
-        <v>5576</v>
+        <v>5323</v>
       </c>
       <c r="E125" s="2">
-        <v>131506</v>
+        <v>60909</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2944,13 +2981,13 @@
         <v>87</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D126" s="2">
-        <v>5323</v>
+        <v>26395</v>
       </c>
       <c r="E126" s="2">
-        <v>60909</v>
+        <v>571229</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,43 +2998,43 @@
         <v>87</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="2">
-        <v>26395</v>
+        <v>3413519</v>
       </c>
       <c r="E127" s="2">
-        <v>571229</v>
+        <v>28041132</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="C128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="4">
+        <f>SUM(D106:D126)-D127</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <f>SUM(E106:E126)-E127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="2">
-        <v>3413519</v>
-      </c>
-      <c r="E128" s="2">
-        <v>28041132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C129" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="4">
-        <f>SUM(D107:D127)-D128</f>
-        <v>0</v>
-      </c>
-      <c r="E129" s="4">
-        <f>SUM(E107:E127)-E128</f>
-        <v>0</v>
+      <c r="B129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2">
+        <v>438206</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1308859</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,13 +3045,13 @@
         <v>86</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2">
-        <v>438206</v>
+        <v>48283</v>
       </c>
       <c r="E130" s="2">
-        <v>1308859</v>
+        <v>454639</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3025,13 +3062,13 @@
         <v>86</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2">
-        <v>48283</v>
+        <v>20558</v>
       </c>
       <c r="E131" s="2">
-        <v>454639</v>
+        <v>578439</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,13 +3079,13 @@
         <v>86</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
-        <v>20558</v>
+        <v>20017</v>
       </c>
       <c r="E132" s="2">
-        <v>578439</v>
+        <v>173300</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,13 +3096,13 @@
         <v>86</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
-        <v>20017</v>
+        <v>16316</v>
       </c>
       <c r="E133" s="2">
-        <v>173300</v>
+        <v>185420</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,13 +3113,13 @@
         <v>86</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2">
-        <v>16316</v>
+        <v>10582</v>
       </c>
       <c r="E134" s="2">
-        <v>185420</v>
+        <v>179358</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3093,13 +3130,13 @@
         <v>86</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2">
-        <v>10582</v>
+        <v>7058</v>
       </c>
       <c r="E135" s="2">
-        <v>179358</v>
+        <v>106603</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3110,13 +3147,13 @@
         <v>86</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>7058</v>
+        <v>14424</v>
       </c>
       <c r="E136" s="2">
-        <v>106603</v>
+        <v>362192</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,43 +3164,43 @@
         <v>86</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="2">
-        <v>14424</v>
+        <v>575444</v>
       </c>
       <c r="E137" s="2">
-        <v>362192</v>
+        <v>3348810</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="C138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="4">
+        <f>SUM(D129:D136)-D137</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <f>SUM(E129:E136)-E137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2">
-        <v>575444</v>
-      </c>
-      <c r="E138" s="2">
-        <v>3348810</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C139" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="4">
-        <f>SUM(D130:D137)-D138</f>
-        <v>0</v>
-      </c>
-      <c r="E139" s="4">
-        <f>SUM(E130:E137)-E138</f>
-        <v>0</v>
+      <c r="B139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2">
+        <v>256313</v>
+      </c>
+      <c r="E139" s="2">
+        <v>765570</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,13 +3211,13 @@
         <v>85</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2">
-        <v>256313</v>
+        <v>139779</v>
       </c>
       <c r="E140" s="2">
-        <v>765570</v>
+        <v>1316191</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,13 +3228,13 @@
         <v>85</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
-        <v>139779</v>
+        <v>18309</v>
       </c>
       <c r="E141" s="2">
-        <v>1316191</v>
+        <v>248088</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3208,13 +3245,13 @@
         <v>85</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2">
-        <v>18309</v>
+        <v>15767</v>
       </c>
       <c r="E142" s="2">
-        <v>248088</v>
+        <v>267245</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,13 +3262,13 @@
         <v>85</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>15767</v>
+        <v>5492</v>
       </c>
       <c r="E143" s="2">
-        <v>267245</v>
+        <v>62735</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,13 +3279,13 @@
         <v>85</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
-        <v>5492</v>
+        <v>5241</v>
       </c>
       <c r="E144" s="2">
-        <v>62735</v>
+        <v>59554</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3259,13 +3296,13 @@
         <v>85</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D145" s="2">
-        <v>5241</v>
+        <v>24294</v>
       </c>
       <c r="E145" s="2">
-        <v>59554</v>
+        <v>440468</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3276,43 +3313,43 @@
         <v>85</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="2">
-        <v>24294</v>
+        <v>465195</v>
       </c>
       <c r="E146" s="2">
-        <v>440468</v>
+        <v>3159851</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="C147" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="4">
+        <f>SUM(D139:D145)-D146</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <f>SUM(E139:E145)-E146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="2">
-        <v>465195</v>
-      </c>
-      <c r="E147" s="2">
-        <v>3159851</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="4">
-        <f>SUM(D140:D146)-D147</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="4">
-        <f>SUM(E140:E146)-E147</f>
-        <v>0</v>
+      <c r="B148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="2">
+        <v>173606</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1087756</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,13 +3360,13 @@
         <v>84</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2">
-        <v>173606</v>
+        <v>49986</v>
       </c>
       <c r="E149" s="2">
-        <v>1087756</v>
+        <v>149159</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,13 +3377,13 @@
         <v>84</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2">
-        <v>49986</v>
+        <v>21140</v>
       </c>
       <c r="E150" s="2">
-        <v>149159</v>
+        <v>207713</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,13 +3394,13 @@
         <v>84</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D151" s="2">
-        <v>21140</v>
+        <v>393</v>
       </c>
       <c r="E151" s="2">
-        <v>207713</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,43 +3411,43 @@
         <v>84</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" s="2">
-        <v>393</v>
+        <v>245125</v>
       </c>
       <c r="E152" s="2">
-        <v>9142</v>
+        <v>1453770</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="C153" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="4">
+        <f>SUM(D148:D151)-D152</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <f>SUM(E148:E151)-E152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="2">
-        <v>245125</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1453770</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C154" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154" s="4">
-        <f>SUM(D149:D152)-D153</f>
-        <v>0</v>
-      </c>
-      <c r="E154" s="4">
-        <f>SUM(E149:E152)-E153</f>
-        <v>0</v>
+      <c r="B154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="2">
+        <v>174141</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1091106</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,13 +3458,13 @@
         <v>34</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2">
-        <v>174141</v>
+        <v>29685</v>
       </c>
       <c r="E155" s="2">
-        <v>1091106</v>
+        <v>279528</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3438,13 +3475,13 @@
         <v>34</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2">
-        <v>29685</v>
+        <v>20960</v>
       </c>
       <c r="E156" s="2">
-        <v>279528</v>
+        <v>62482</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,13 +3492,13 @@
         <v>34</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D157" s="2">
-        <v>20960</v>
+        <v>1901</v>
       </c>
       <c r="E157" s="2">
-        <v>62482</v>
+        <v>24559</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3472,43 +3509,43 @@
         <v>34</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="2">
-        <v>1901</v>
+        <v>226687</v>
       </c>
       <c r="E158" s="2">
-        <v>24559</v>
+        <v>1457675</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="C159" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="4">
+        <f>SUM(D154:D157)-D158</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <f>SUM(E154:E157)-E158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2">
-        <v>226687</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1457675</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C160" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="4">
-        <f>SUM(D155:D158)-D159</f>
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <f>SUM(E155:E158)-E159</f>
-        <v>0</v>
+      <c r="B160" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" s="2">
+        <v>37905</v>
+      </c>
+      <c r="E160" s="2">
+        <v>142181</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3519,13 +3556,13 @@
         <v>83</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2">
-        <v>37905</v>
+        <v>17538</v>
       </c>
       <c r="E161" s="2">
-        <v>142181</v>
+        <v>151845</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3536,13 +3573,13 @@
         <v>83</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
-        <v>17538</v>
+        <v>8394</v>
       </c>
       <c r="E162" s="2">
-        <v>151845</v>
+        <v>617200</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3553,13 +3590,13 @@
         <v>83</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D163" s="2">
-        <v>8394</v>
+        <v>5255</v>
       </c>
       <c r="E163" s="2">
-        <v>617200</v>
+        <v>46549</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3570,43 +3607,43 @@
         <v>83</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D164" s="2">
-        <v>5255</v>
+        <v>69092</v>
       </c>
       <c r="E164" s="2">
-        <v>46549</v>
+        <v>957775</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="C165" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="4">
+        <f>SUM(D160:D163)-D164</f>
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <f>SUM(E160:E163)-E164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="2">
-        <v>69092</v>
-      </c>
-      <c r="E165" s="2">
-        <v>957775</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C166" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D166" s="4">
-        <f>SUM(D161:D164)-D165</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <f>SUM(E161:E164)-E165</f>
-        <v>0</v>
+      <c r="B166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2">
+        <v>28573</v>
+      </c>
+      <c r="E166" s="2">
+        <v>269048</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,13 +3654,13 @@
         <v>81</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>28573</v>
+        <v>11936</v>
       </c>
       <c r="E167" s="2">
-        <v>269048</v>
+        <v>35652</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3634,13 +3671,13 @@
         <v>81</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>11936</v>
+        <v>4797</v>
       </c>
       <c r="E168" s="2">
-        <v>35652</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3651,43 +3688,43 @@
         <v>81</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D169" s="2">
-        <v>4797</v>
+        <v>45306</v>
       </c>
       <c r="E169" s="2">
-        <v>33920</v>
+        <v>338620</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="C170" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="4">
+        <f>SUM(D166:D168)-D169</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <f>SUM(E166:E168)-E169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45306</v>
-      </c>
-      <c r="E170" s="2">
-        <v>338620</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C171" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D171" s="4">
-        <f>SUM(D167:D169)-D170</f>
-        <v>0</v>
-      </c>
-      <c r="E171" s="4">
-        <f>SUM(E167:E169)-E170</f>
-        <v>0</v>
+      <c r="B171" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="2">
+        <v>28074</v>
+      </c>
+      <c r="E171" s="2">
+        <v>371351</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,13 +3735,13 @@
         <v>80</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>28074</v>
+        <v>889</v>
       </c>
       <c r="E172" s="2">
-        <v>371351</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,43 +3752,43 @@
         <v>80</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" s="2">
-        <v>889</v>
+        <v>28963</v>
       </c>
       <c r="E173" s="2">
-        <v>6775</v>
+        <v>378126</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="4">
+        <f>SUM(D171:D172)-D173</f>
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <f>SUM(E171:E172)-E173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="2">
-        <v>28963</v>
-      </c>
-      <c r="E174" s="2">
-        <v>378126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C175" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D175" s="4">
-        <f>SUM(D172:D173)-D174</f>
-        <v>0</v>
-      </c>
-      <c r="E175" s="4">
-        <f>SUM(E172:E173)-E174</f>
-        <v>0</v>
+      <c r="B175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1760</v>
+      </c>
+      <c r="E175" s="2">
+        <v>22976</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3761,6 +3798,9 @@
       <c r="B176" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D176" s="2">
         <v>1760</v>
       </c>
@@ -3769,41 +3809,48 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="2">
-        <v>1760</v>
-      </c>
-      <c r="E177" s="2">
-        <v>22976</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C178" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="D178" s="2">
+        <v>2031401</v>
+      </c>
+      <c r="E178" s="2">
+        <v>46551249</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C179" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2">
-        <v>2031401</v>
+        <v>257932</v>
       </c>
       <c r="E179" s="2">
-        <v>46551249</v>
+        <v>15083766</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -3814,13 +3861,13 @@
         <v>78</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D180" s="2">
-        <v>257932</v>
+        <v>226483</v>
       </c>
       <c r="E180" s="2">
-        <v>15083766</v>
+        <v>5115444</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3831,13 +3878,13 @@
         <v>78</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2">
-        <v>226483</v>
+        <v>165750</v>
       </c>
       <c r="E181" s="2">
-        <v>5115444</v>
+        <v>1052379</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3848,13 +3895,13 @@
         <v>78</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
-        <v>165750</v>
+        <v>109629</v>
       </c>
       <c r="E182" s="2">
-        <v>1052379</v>
+        <v>8498400</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3865,13 +3912,13 @@
         <v>78</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D183" s="2">
-        <v>109629</v>
+        <v>98232</v>
       </c>
       <c r="E183" s="2">
-        <v>8498400</v>
+        <v>284567</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,13 +3929,13 @@
         <v>78</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D184" s="2">
-        <v>98232</v>
+        <v>47975</v>
       </c>
       <c r="E184" s="2">
-        <v>284567</v>
+        <v>360983</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3899,13 +3946,13 @@
         <v>78</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D185" s="2">
-        <v>47975</v>
+        <v>45886</v>
       </c>
       <c r="E185" s="2">
-        <v>360983</v>
+        <v>1927978</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,13 +3963,13 @@
         <v>78</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2">
-        <v>45886</v>
+        <v>30748</v>
       </c>
       <c r="E186" s="2">
-        <v>1927978</v>
+        <v>452176</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3933,13 +3980,13 @@
         <v>78</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D187" s="2">
-        <v>30748</v>
+        <v>15076</v>
       </c>
       <c r="E187" s="2">
-        <v>452176</v>
+        <v>544265</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3950,13 +3997,13 @@
         <v>78</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188" s="2">
-        <v>15076</v>
+        <v>10071</v>
       </c>
       <c r="E188" s="2">
-        <v>544265</v>
+        <v>103933</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3967,13 +4014,13 @@
         <v>78</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D189" s="2">
-        <v>10071</v>
+        <v>9083</v>
       </c>
       <c r="E189" s="2">
-        <v>103933</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3984,13 +4031,13 @@
         <v>78</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D190" s="2">
-        <v>9083</v>
+        <v>6761</v>
       </c>
       <c r="E190" s="2">
-        <v>100589</v>
+        <v>112675</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -4001,13 +4048,13 @@
         <v>78</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D191" s="2">
-        <v>6761</v>
+        <v>33859</v>
       </c>
       <c r="E191" s="2">
-        <v>112675</v>
+        <v>767127</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -4018,43 +4065,43 @@
         <v>78</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D192" s="2">
-        <v>33859</v>
+        <v>1057485</v>
       </c>
       <c r="E192" s="2">
-        <v>767127</v>
+        <v>34404282</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="C193" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" s="4">
+        <f>SUM(D179:D191)-D192</f>
+        <v>0</v>
+      </c>
+      <c r="E193" s="4">
+        <f>SUM(E179:E191)-E192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="2">
-        <v>1057485</v>
-      </c>
-      <c r="E193" s="2">
-        <v>34404282</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C194" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" s="4">
-        <f>SUM(D180:D192)-D193</f>
-        <v>0</v>
-      </c>
-      <c r="E194" s="4">
-        <f>SUM(E180:E192)-E193</f>
-        <v>0</v>
+      <c r="B194" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2">
+        <v>77950</v>
+      </c>
+      <c r="E194" s="2">
+        <v>225810</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -4065,13 +4112,13 @@
         <v>77</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D195" s="2">
-        <v>77950</v>
+        <v>28712</v>
       </c>
       <c r="E195" s="2">
-        <v>225810</v>
+        <v>182300</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4082,13 +4129,13 @@
         <v>77</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D196" s="2">
-        <v>28712</v>
+        <v>23834</v>
       </c>
       <c r="E196" s="2">
-        <v>182300</v>
+        <v>500512</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -4099,13 +4146,13 @@
         <v>77</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
-        <v>23834</v>
+        <v>13011</v>
       </c>
       <c r="E197" s="2">
-        <v>500512</v>
+        <v>285953</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -4116,13 +4163,13 @@
         <v>77</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D198" s="2">
-        <v>13011</v>
+        <v>9610</v>
       </c>
       <c r="E198" s="2">
-        <v>285953</v>
+        <v>346949</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -4133,13 +4180,13 @@
         <v>77</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>9610</v>
+        <v>9121</v>
       </c>
       <c r="E199" s="2">
-        <v>346949</v>
+        <v>134131</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,13 +4197,13 @@
         <v>77</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D200" s="2">
-        <v>9121</v>
+        <v>8348</v>
       </c>
       <c r="E200" s="2">
-        <v>134131</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -4167,13 +4214,13 @@
         <v>77</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2">
-        <v>8348</v>
+        <v>7944</v>
       </c>
       <c r="E201" s="2">
-        <v>22031</v>
+        <v>81981</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -4184,13 +4231,13 @@
         <v>77</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
-        <v>7944</v>
+        <v>5376</v>
       </c>
       <c r="E202" s="2">
-        <v>81981</v>
+        <v>78042</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -4201,13 +4248,13 @@
         <v>77</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D203" s="2">
-        <v>5376</v>
+        <v>21184</v>
       </c>
       <c r="E203" s="2">
-        <v>78042</v>
+        <v>437589</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -4218,43 +4265,43 @@
         <v>77</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" s="2">
-        <v>21184</v>
+        <v>205090</v>
       </c>
       <c r="E204" s="2">
-        <v>437589</v>
+        <v>2295298</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+      <c r="C205" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D205" s="4">
+        <f>SUM(D194:D203)-D204</f>
+        <v>0</v>
+      </c>
+      <c r="E205" s="4">
+        <f>SUM(E194:E203)-E204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="2">
-        <v>205090</v>
-      </c>
-      <c r="E205" s="2">
-        <v>2295298</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C206" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D206" s="4">
-        <f>SUM(D195:D204)-D205</f>
-        <v>0</v>
-      </c>
-      <c r="E206" s="4">
-        <f>SUM(E195:E204)-E205</f>
-        <v>0</v>
+      <c r="B206" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="2">
+        <v>539499</v>
+      </c>
+      <c r="E206" s="2">
+        <v>3425392</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,13 +4312,13 @@
         <v>76</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D207" s="2">
-        <v>539499</v>
+        <v>83743</v>
       </c>
       <c r="E207" s="2">
-        <v>3425392</v>
+        <v>242592</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -4282,13 +4329,13 @@
         <v>76</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D208" s="2">
-        <v>83743</v>
+        <v>59895</v>
       </c>
       <c r="E208" s="2">
-        <v>242592</v>
+        <v>3502615</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,13 +4346,13 @@
         <v>76</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D209" s="2">
-        <v>59895</v>
+        <v>28089</v>
       </c>
       <c r="E209" s="2">
-        <v>3502615</v>
+        <v>541033</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4316,13 +4363,13 @@
         <v>76</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
-        <v>28089</v>
+        <v>18499</v>
       </c>
       <c r="E210" s="2">
-        <v>541033</v>
+        <v>406580</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4333,13 +4380,13 @@
         <v>76</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
-        <v>18499</v>
+        <v>13950</v>
       </c>
       <c r="E211" s="2">
-        <v>406580</v>
+        <v>1081400</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -4350,13 +4397,13 @@
         <v>76</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D212" s="2">
-        <v>13950</v>
+        <v>11516</v>
       </c>
       <c r="E212" s="2">
-        <v>1081400</v>
+        <v>483860</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4367,13 +4414,13 @@
         <v>76</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D213" s="2">
-        <v>11516</v>
+        <v>13635</v>
       </c>
       <c r="E213" s="2">
-        <v>483860</v>
+        <v>168197</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,54 +4431,60 @@
         <v>76</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214" s="2">
-        <v>13635</v>
+        <v>768826</v>
       </c>
       <c r="E214" s="2">
-        <v>168197</v>
+        <v>9851669</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D215" s="4">
+        <f>SUM(D206:D213)-D214</f>
+        <v>0</v>
+      </c>
+      <c r="E215" s="4">
+        <f>SUM(E206:E213)-E214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="2">
-        <v>768826</v>
-      </c>
-      <c r="E215" s="2">
-        <v>9851669</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C216" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D216" s="4">
-        <f>SUM(D207:D214)-D215</f>
-        <v>0</v>
-      </c>
-      <c r="E216" s="4">
-        <f>SUM(E207:E214)-E215</f>
-        <v>0</v>
+      <c r="D216" s="2">
+        <v>2175953</v>
+      </c>
+      <c r="E216" s="2">
+        <v>54329327</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B217" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D217" s="2">
-        <v>2175953</v>
+        <v>543737</v>
       </c>
       <c r="E217" s="2">
-        <v>54329327</v>
+        <v>3190944</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -4442,13 +4495,13 @@
         <v>70</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D218" s="2">
-        <v>543737</v>
+        <v>74210</v>
       </c>
       <c r="E218" s="2">
-        <v>3190944</v>
+        <v>204915</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4459,13 +4512,13 @@
         <v>70</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D219" s="2">
-        <v>74210</v>
+        <v>21951</v>
       </c>
       <c r="E219" s="2">
-        <v>204915</v>
+        <v>148016</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4476,13 +4529,13 @@
         <v>70</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D220" s="2">
-        <v>21951</v>
+        <v>15039</v>
       </c>
       <c r="E220" s="2">
-        <v>148016</v>
+        <v>154721</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4493,13 +4546,13 @@
         <v>70</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>15039</v>
+        <v>14415</v>
       </c>
       <c r="E221" s="2">
-        <v>154721</v>
+        <v>100106</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4510,13 +4563,13 @@
         <v>70</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D222" s="2">
-        <v>14415</v>
+        <v>9507</v>
       </c>
       <c r="E222" s="2">
-        <v>100106</v>
+        <v>68942</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4527,13 +4580,13 @@
         <v>70</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2">
-        <v>9507</v>
+        <v>8211</v>
       </c>
       <c r="E223" s="2">
-        <v>68942</v>
+        <v>154224</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4544,13 +4597,13 @@
         <v>70</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224" s="2">
-        <v>8211</v>
+        <v>9604</v>
       </c>
       <c r="E224" s="2">
-        <v>154224</v>
+        <v>228073</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4561,43 +4614,43 @@
         <v>70</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D225" s="2">
-        <v>9604</v>
+        <v>696674</v>
       </c>
       <c r="E225" s="2">
-        <v>228073</v>
+        <v>4249941</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="C226" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D226" s="4">
+        <f>SUM(D217:D224)-D225</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="4">
+        <f>SUM(E217:E224)-E225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="2">
-        <v>696674</v>
-      </c>
-      <c r="E226" s="2">
-        <v>4249941</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C227" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D227" s="4">
-        <f>SUM(D218:D225)-D226</f>
-        <v>0</v>
-      </c>
-      <c r="E227" s="4">
-        <f>SUM(E218:E225)-E226</f>
-        <v>0</v>
+      <c r="B227" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D227" s="2">
+        <v>274358</v>
+      </c>
+      <c r="E227" s="2">
+        <v>14439885</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4608,13 +4661,13 @@
         <v>71</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D228" s="2">
-        <v>274358</v>
+        <v>203051</v>
       </c>
       <c r="E228" s="2">
-        <v>14439885</v>
+        <v>13447066</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4625,13 +4678,13 @@
         <v>71</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D229" s="2">
-        <v>203051</v>
+        <v>190156</v>
       </c>
       <c r="E229" s="2">
-        <v>13447066</v>
+        <v>11251815</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4642,13 +4695,13 @@
         <v>71</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D230" s="2">
-        <v>190156</v>
+        <v>15470</v>
       </c>
       <c r="E230" s="2">
-        <v>11251815</v>
+        <v>176040</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -4659,13 +4712,13 @@
         <v>71</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D231" s="2">
-        <v>15470</v>
+        <v>6351</v>
       </c>
       <c r="E231" s="2">
-        <v>176040</v>
+        <v>242536</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4676,43 +4729,43 @@
         <v>71</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D232" s="2">
-        <v>6351</v>
+        <v>689386</v>
       </c>
       <c r="E232" s="2">
-        <v>242536</v>
+        <v>39557342</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="C233" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D233" s="4">
+        <f>SUM(D227:D231)-D232</f>
+        <v>0</v>
+      </c>
+      <c r="E233" s="4">
+        <f>SUM(E227:E231)-E232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="2">
-        <v>689386</v>
-      </c>
-      <c r="E233" s="2">
-        <v>39557342</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C234" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D234" s="4">
-        <f>SUM(D228:D232)-D233</f>
-        <v>0</v>
-      </c>
-      <c r="E234" s="4">
-        <f>SUM(E228:E232)-E233</f>
-        <v>0</v>
+      <c r="B234" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" s="2">
+        <v>116382</v>
+      </c>
+      <c r="E234" s="2">
+        <v>945577</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -4723,13 +4776,13 @@
         <v>72</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D235" s="2">
-        <v>116382</v>
+        <v>95411</v>
       </c>
       <c r="E235" s="2">
-        <v>945577</v>
+        <v>192284</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4740,13 +4793,13 @@
         <v>72</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D236" s="2">
-        <v>95411</v>
+        <v>29981</v>
       </c>
       <c r="E236" s="2">
-        <v>192284</v>
+        <v>133785</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4757,13 +4810,13 @@
         <v>72</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D237" s="2">
-        <v>29981</v>
+        <v>16744</v>
       </c>
       <c r="E237" s="2">
-        <v>133785</v>
+        <v>881240</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -4774,13 +4827,13 @@
         <v>72</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D238" s="2">
-        <v>16744</v>
+        <v>11349</v>
       </c>
       <c r="E238" s="2">
-        <v>881240</v>
+        <v>40373</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4791,13 +4844,13 @@
         <v>72</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D239" s="2">
-        <v>11349</v>
+        <v>10595</v>
       </c>
       <c r="E239" s="2">
-        <v>40373</v>
+        <v>161156</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -4808,13 +4861,13 @@
         <v>72</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D240" s="2">
-        <v>10595</v>
+        <v>9881</v>
       </c>
       <c r="E240" s="2">
-        <v>161156</v>
+        <v>584678</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4825,13 +4878,13 @@
         <v>72</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D241" s="2">
-        <v>9881</v>
+        <v>9779</v>
       </c>
       <c r="E241" s="2">
-        <v>584678</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4842,13 +4895,13 @@
         <v>72</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D242" s="2">
-        <v>9779</v>
+        <v>9179</v>
       </c>
       <c r="E242" s="2">
-        <v>100605</v>
+        <v>607892</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -4859,13 +4912,13 @@
         <v>72</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D243" s="2">
-        <v>9179</v>
+        <v>6737</v>
       </c>
       <c r="E243" s="2">
-        <v>607892</v>
+        <v>104285</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -4876,13 +4929,13 @@
         <v>72</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
-        <v>6737</v>
+        <v>6052</v>
       </c>
       <c r="E244" s="2">
-        <v>104285</v>
+        <v>321900</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4893,13 +4946,13 @@
         <v>72</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>6052</v>
+        <v>5163</v>
       </c>
       <c r="E245" s="2">
-        <v>321900</v>
+        <v>157292</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4910,13 +4963,13 @@
         <v>72</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D246" s="2">
-        <v>5163</v>
+        <v>5046</v>
       </c>
       <c r="E246" s="2">
-        <v>157292</v>
+        <v>13199</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4927,13 +4980,13 @@
         <v>72</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D247" s="2">
-        <v>5046</v>
+        <v>8919</v>
       </c>
       <c r="E247" s="2">
-        <v>13199</v>
+        <v>138257</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4944,43 +4997,43 @@
         <v>72</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D248" s="2">
-        <v>8919</v>
+        <v>341218</v>
       </c>
       <c r="E248" s="2">
-        <v>138257</v>
+        <v>4382523</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="C249" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D249" s="4">
+        <f>SUM(D234:D247)-D248</f>
+        <v>0</v>
+      </c>
+      <c r="E249" s="4">
+        <f>SUM(E234:E247)-E248</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D249" s="2">
-        <v>341218</v>
-      </c>
-      <c r="E249" s="2">
-        <v>4382523</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C250" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D250" s="4">
-        <f>SUM(D235:D248)-D249</f>
-        <v>0</v>
-      </c>
-      <c r="E250" s="4">
-        <f>SUM(E235:E248)-E249</f>
-        <v>0</v>
+      <c r="B250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" s="2">
+        <v>95688</v>
+      </c>
+      <c r="E250" s="2">
+        <v>696680</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4991,13 +5044,13 @@
         <v>73</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D251" s="2">
-        <v>95688</v>
+        <v>82947</v>
       </c>
       <c r="E251" s="2">
-        <v>696680</v>
+        <v>2264308</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -5008,13 +5061,13 @@
         <v>73</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D252" s="2">
-        <v>82947</v>
+        <v>32474</v>
       </c>
       <c r="E252" s="2">
-        <v>2264308</v>
+        <v>225513</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -5025,13 +5078,13 @@
         <v>73</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D253" s="2">
-        <v>32474</v>
+        <v>28040</v>
       </c>
       <c r="E253" s="2">
-        <v>225513</v>
+        <v>1395025</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -5042,13 +5095,13 @@
         <v>73</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D254" s="2">
-        <v>28040</v>
+        <v>25194</v>
       </c>
       <c r="E254" s="2">
-        <v>1395025</v>
+        <v>169885</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -5059,13 +5112,13 @@
         <v>73</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D255" s="2">
-        <v>25194</v>
+        <v>23315</v>
       </c>
       <c r="E255" s="2">
-        <v>169885</v>
+        <v>239863</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -5076,13 +5129,13 @@
         <v>73</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D256" s="2">
-        <v>23315</v>
+        <v>21325</v>
       </c>
       <c r="E256" s="2">
-        <v>239863</v>
+        <v>58893</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -5093,13 +5146,13 @@
         <v>73</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D257" s="2">
-        <v>21325</v>
+        <v>8861</v>
       </c>
       <c r="E257" s="2">
-        <v>58893</v>
+        <v>40157</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,13 +5163,13 @@
         <v>73</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D258" s="2">
-        <v>8861</v>
+        <v>7093</v>
       </c>
       <c r="E258" s="2">
-        <v>40157</v>
+        <v>79429</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,13 +5180,13 @@
         <v>73</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D259" s="2">
-        <v>7093</v>
+        <v>7400</v>
       </c>
       <c r="E259" s="2">
-        <v>79429</v>
+        <v>139692</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,43 +5197,43 @@
         <v>73</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D260" s="2">
-        <v>7400</v>
+        <v>332337</v>
       </c>
       <c r="E260" s="2">
-        <v>139692</v>
+        <v>5309445</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="C261" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D261" s="4">
+        <f>SUM(D250:D259)-D260</f>
+        <v>0</v>
+      </c>
+      <c r="E261" s="4">
+        <f>SUM(E250:E259)-E260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D261" s="2">
-        <v>332337</v>
-      </c>
-      <c r="E261" s="2">
-        <v>5309445</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C262" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D262" s="4">
-        <f>SUM(D251:D260)-D261</f>
-        <v>0</v>
-      </c>
-      <c r="E262" s="4">
-        <f>SUM(E251:E260)-E261</f>
-        <v>0</v>
+      <c r="B262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D262" s="2">
+        <v>111217</v>
+      </c>
+      <c r="E262" s="2">
+        <v>806504</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -5191,7 +5244,7 @@
         <v>74</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D263" s="2">
         <v>111217</v>
@@ -5201,28 +5254,32 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+      <c r="C264" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
+      <c r="E264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" s="2">
-        <v>111217</v>
-      </c>
-      <c r="E264" s="2">
-        <v>806504</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C265" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
+      <c r="B265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D265" s="2">
+        <v>5121</v>
+      </c>
+      <c r="E265" s="2">
+        <v>23572</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
@@ -5232,7 +5289,7 @@
         <v>75</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D266" s="2">
         <v>5121</v>
@@ -5242,44 +5299,83 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
+      <c r="E267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="2">
-        <v>5121</v>
-      </c>
-      <c r="E267" s="2">
-        <v>23572</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C268" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
+      <c r="D268" s="2">
+        <v>37792479</v>
+      </c>
+      <c r="E268" s="2">
+        <v>447690196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" s="2">
+        <v>17352801</v>
+      </c>
+      <c r="E269" s="2">
+        <v>126445944</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D270" s="2">
-        <v>37792479</v>
+        <v>8469023</v>
       </c>
       <c r="E270" s="2">
-        <v>447690196</v>
+        <v>74696374</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="2">
+        <v>5003051</v>
+      </c>
+      <c r="E271" s="2">
+        <v>27548831</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
@@ -5289,13 +5385,13 @@
         <v>95</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D272" s="2">
-        <v>17352801</v>
+        <v>1483716</v>
       </c>
       <c r="E272" s="2">
-        <v>126445944</v>
+        <v>11367498</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,13 +5402,13 @@
         <v>95</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D273" s="2">
-        <v>8469023</v>
+        <v>1226640</v>
       </c>
       <c r="E273" s="2">
-        <v>74696374</v>
+        <v>48103535</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5323,13 +5419,13 @@
         <v>95</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D274" s="2">
-        <v>5003051</v>
+        <v>994964</v>
       </c>
       <c r="E274" s="2">
-        <v>27548831</v>
+        <v>46711942</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -5340,13 +5436,13 @@
         <v>95</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D275" s="2">
-        <v>1483716</v>
+        <v>534754</v>
       </c>
       <c r="E275" s="2">
-        <v>11367498</v>
+        <v>23661671</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -5357,13 +5453,13 @@
         <v>95</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2">
-        <v>1226640</v>
+        <v>150067</v>
       </c>
       <c r="E276" s="2">
-        <v>48103535</v>
+        <v>12005371</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5374,13 +5470,13 @@
         <v>95</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D277" s="2">
-        <v>994964</v>
+        <v>85128</v>
       </c>
       <c r="E277" s="2">
-        <v>46711942</v>
+        <v>665582</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5391,13 +5487,13 @@
         <v>95</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D278" s="2">
-        <v>534754</v>
+        <v>15812</v>
       </c>
       <c r="E278" s="2">
-        <v>23661671</v>
+        <v>735432</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -5408,13 +5504,13 @@
         <v>95</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D279" s="2">
-        <v>150067</v>
+        <v>13198</v>
       </c>
       <c r="E279" s="2">
-        <v>12005371</v>
+        <v>144876</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -5425,13 +5521,13 @@
         <v>95</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D280" s="2">
-        <v>85128</v>
+        <v>6248</v>
       </c>
       <c r="E280" s="2">
-        <v>665582</v>
+        <v>33232</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -5442,13 +5538,13 @@
         <v>95</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D281" s="2">
-        <v>15812</v>
+        <v>3682</v>
       </c>
       <c r="E281" s="2">
-        <v>735432</v>
+        <v>61513</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -5459,30 +5555,29 @@
         <v>95</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D282" s="2">
-        <v>13198</v>
+        <v>35339084</v>
       </c>
       <c r="E282" s="2">
-        <v>144876</v>
+        <v>372181801</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D283" s="2">
-        <v>6248</v>
-      </c>
-      <c r="E283" s="2">
-        <v>33232</v>
+      <c r="C283" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D283" s="4">
+        <f>SUM(D269:D281)-D282</f>
+        <v>0</v>
+      </c>
+      <c r="E283" s="4">
+        <f>SUM(E269:E281)-E282</f>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -5490,16 +5585,16 @@
         <v>126</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D284" s="2">
-        <v>3682</v>
+        <v>144137</v>
       </c>
       <c r="E284" s="2">
-        <v>61513</v>
+        <v>603589</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -5507,32 +5602,33 @@
         <v>126</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D285" s="2">
-        <v>35339084</v>
+        <v>102498</v>
       </c>
       <c r="E285" s="2">
-        <v>372181801</v>
+        <v>565353</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D286" s="6">
-        <f>SUM(D272:D284)-D285</f>
-        <v>0</v>
-      </c>
-      <c r="E286" s="6">
-        <f>SUM(E272:E284)-E285</f>
-        <v>0</v>
+      <c r="B286" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D286" s="2">
+        <v>86978</v>
+      </c>
+      <c r="E286" s="2">
+        <v>163584</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5543,13 +5639,13 @@
         <v>103</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D287" s="2">
-        <v>144137</v>
+        <v>64565</v>
       </c>
       <c r="E287" s="2">
-        <v>603589</v>
+        <v>2856865</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -5560,13 +5656,13 @@
         <v>103</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D288" s="2">
-        <v>102498</v>
+        <v>61867</v>
       </c>
       <c r="E288" s="2">
-        <v>565353</v>
+        <v>473713</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -5577,13 +5673,13 @@
         <v>103</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D289" s="2">
-        <v>86978</v>
+        <v>55656</v>
       </c>
       <c r="E289" s="2">
-        <v>163584</v>
+        <v>4452480</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -5594,13 +5690,13 @@
         <v>103</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D290" s="2">
-        <v>64565</v>
+        <v>52767</v>
       </c>
       <c r="E290" s="2">
-        <v>2856865</v>
+        <v>390292</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -5611,13 +5707,13 @@
         <v>103</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D291" s="2">
-        <v>61867</v>
+        <v>51358</v>
       </c>
       <c r="E291" s="2">
-        <v>473713</v>
+        <v>2014021</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -5628,13 +5724,13 @@
         <v>103</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D292" s="2">
-        <v>55656</v>
+        <v>45937</v>
       </c>
       <c r="E292" s="2">
-        <v>4452480</v>
+        <v>299266</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -5645,13 +5741,13 @@
         <v>103</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D293" s="2">
-        <v>52767</v>
+        <v>42857</v>
       </c>
       <c r="E293" s="2">
-        <v>390292</v>
+        <v>2012057</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -5662,13 +5758,13 @@
         <v>103</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D294" s="2">
-        <v>51358</v>
+        <v>37232</v>
       </c>
       <c r="E294" s="2">
-        <v>2014021</v>
+        <v>370337</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -5679,13 +5775,13 @@
         <v>103</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D295" s="2">
-        <v>45937</v>
+        <v>33320</v>
       </c>
       <c r="E295" s="2">
-        <v>299266</v>
+        <v>177232</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5696,13 +5792,13 @@
         <v>103</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D296" s="2">
-        <v>42857</v>
+        <v>30402</v>
       </c>
       <c r="E296" s="2">
-        <v>2012057</v>
+        <v>118479</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -5713,13 +5809,13 @@
         <v>103</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D297" s="2">
-        <v>37232</v>
+        <v>24785</v>
       </c>
       <c r="E297" s="2">
-        <v>370337</v>
+        <v>61684</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -5730,13 +5826,13 @@
         <v>103</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D298" s="2">
-        <v>33320</v>
+        <v>24036</v>
       </c>
       <c r="E298" s="2">
-        <v>177232</v>
+        <v>136179</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -5747,13 +5843,13 @@
         <v>103</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D299" s="2">
-        <v>30402</v>
+        <v>15878</v>
       </c>
       <c r="E299" s="2">
-        <v>118479</v>
+        <v>447311</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -5764,13 +5860,13 @@
         <v>103</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D300" s="2">
-        <v>24785</v>
+        <v>14632</v>
       </c>
       <c r="E300" s="2">
-        <v>61684</v>
+        <v>59845</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -5781,13 +5877,13 @@
         <v>103</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D301" s="2">
-        <v>24036</v>
+        <v>14630</v>
       </c>
       <c r="E301" s="2">
-        <v>136179</v>
+        <v>677298</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -5798,13 +5894,13 @@
         <v>103</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D302" s="2">
-        <v>15878</v>
+        <v>11532</v>
       </c>
       <c r="E302" s="2">
-        <v>447311</v>
+        <v>126582</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -5815,13 +5911,13 @@
         <v>103</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D303" s="2">
-        <v>14632</v>
+        <v>10547</v>
       </c>
       <c r="E303" s="2">
-        <v>59845</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -5832,13 +5928,13 @@
         <v>103</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D304" s="2">
-        <v>14630</v>
+        <v>10071</v>
       </c>
       <c r="E304" s="2">
-        <v>677298</v>
+        <v>93569</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -5849,13 +5945,13 @@
         <v>103</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D305" s="2">
-        <v>11532</v>
+        <v>9395</v>
       </c>
       <c r="E305" s="2">
-        <v>126582</v>
+        <v>63438</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -5866,13 +5962,13 @@
         <v>103</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D306" s="2">
-        <v>10547</v>
+        <v>18119</v>
       </c>
       <c r="E306" s="2">
-        <v>43782</v>
+        <v>160581</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -5883,30 +5979,29 @@
         <v>103</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D307" s="2">
-        <v>10071</v>
+        <v>963199</v>
       </c>
       <c r="E307" s="2">
-        <v>93569</v>
+        <v>16367537</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D308" s="2">
-        <v>9395</v>
-      </c>
-      <c r="E308" s="2">
-        <v>63438</v>
+      <c r="C308" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D308" s="4">
+        <f>SUM(D284:D306)-D307</f>
+        <v>0</v>
+      </c>
+      <c r="E308" s="4">
+        <f>SUM(E284:E306)-E307</f>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -5914,16 +6009,16 @@
         <v>126</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D309" s="2">
-        <v>18119</v>
+        <v>166973</v>
       </c>
       <c r="E309" s="2">
-        <v>160581</v>
+        <v>7388164</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -5931,32 +6026,33 @@
         <v>126</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D310" s="2">
-        <v>963199</v>
+        <v>98838</v>
       </c>
       <c r="E310" s="2">
-        <v>16367537</v>
+        <v>1173863</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D311" s="6">
-        <f>SUM(D287:D309)-D310</f>
-        <v>0</v>
-      </c>
-      <c r="E311" s="6">
-        <f>SUM(E287:E309)-E310</f>
-        <v>0</v>
+      <c r="B311" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2">
+        <v>75646</v>
+      </c>
+      <c r="E311" s="2">
+        <v>3551440</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -5967,13 +6063,13 @@
         <v>115</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D312" s="2">
-        <v>166973</v>
+        <v>60070</v>
       </c>
       <c r="E312" s="2">
-        <v>7388164</v>
+        <v>149503</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -5984,13 +6080,13 @@
         <v>115</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D313" s="2">
-        <v>98838</v>
+        <v>48432</v>
       </c>
       <c r="E313" s="2">
-        <v>1173863</v>
+        <v>91089</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6001,13 +6097,13 @@
         <v>115</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D314" s="2">
-        <v>75646</v>
+        <v>22616</v>
       </c>
       <c r="E314" s="2">
-        <v>3551440</v>
+        <v>128135</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6018,13 +6114,13 @@
         <v>115</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D315" s="2">
-        <v>60070</v>
+        <v>13511</v>
       </c>
       <c r="E315" s="2">
-        <v>149503</v>
+        <v>529835</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,13 +6131,13 @@
         <v>115</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D316" s="2">
-        <v>48432</v>
+        <v>11117</v>
       </c>
       <c r="E316" s="2">
-        <v>91089</v>
+        <v>46553</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -6052,13 +6148,13 @@
         <v>115</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D317" s="2">
-        <v>22616</v>
+        <v>5935</v>
       </c>
       <c r="E317" s="2">
-        <v>128135</v>
+        <v>474810</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -6069,13 +6165,13 @@
         <v>115</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D318" s="2">
-        <v>13511</v>
+        <v>7148</v>
       </c>
       <c r="E318" s="2">
-        <v>529835</v>
+        <v>41118</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -6086,30 +6182,29 @@
         <v>115</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D319" s="2">
-        <v>11117</v>
+        <v>510286</v>
       </c>
       <c r="E319" s="2">
-        <v>46553</v>
+        <v>13574510</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D320" s="2">
-        <v>5935</v>
-      </c>
-      <c r="E320" s="2">
-        <v>474810</v>
+      <c r="C320" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D320" s="4">
+        <f>SUM(D309:D318)-D319</f>
+        <v>0</v>
+      </c>
+      <c r="E320" s="4">
+        <f>SUM(E309:E318)-E319</f>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -6117,16 +6212,16 @@
         <v>126</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D321" s="2">
-        <v>7148</v>
+        <v>244778</v>
       </c>
       <c r="E321" s="2">
-        <v>41118</v>
+        <v>19582260</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -6134,32 +6229,33 @@
         <v>126</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D322" s="2">
-        <v>510286</v>
+        <v>76559</v>
       </c>
       <c r="E322" s="2">
-        <v>13574510</v>
+        <v>3002302</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D323" s="6">
-        <f>SUM(D312:D321)-D322</f>
-        <v>0</v>
-      </c>
-      <c r="E323" s="6">
-        <f>SUM(E312:E321)-E322</f>
-        <v>0</v>
+      <c r="B323" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" s="2">
+        <v>43875</v>
+      </c>
+      <c r="E323" s="2">
+        <v>2059840</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -6170,13 +6266,13 @@
         <v>118</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D324" s="2">
-        <v>244778</v>
+        <v>27944</v>
       </c>
       <c r="E324" s="2">
-        <v>19582260</v>
+        <v>52556</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -6187,13 +6283,13 @@
         <v>118</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D325" s="2">
-        <v>76559</v>
+        <v>17927</v>
       </c>
       <c r="E325" s="2">
-        <v>3002302</v>
+        <v>152874</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -6204,13 +6300,13 @@
         <v>118</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D326" s="2">
-        <v>43875</v>
+        <v>12566</v>
       </c>
       <c r="E326" s="2">
-        <v>2059840</v>
+        <v>556030</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -6221,13 +6317,13 @@
         <v>118</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D327" s="2">
-        <v>27944</v>
+        <v>6504</v>
       </c>
       <c r="E327" s="2">
-        <v>52556</v>
+        <v>56544</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -6238,30 +6334,29 @@
         <v>118</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D328" s="2">
-        <v>17927</v>
+        <v>430153</v>
       </c>
       <c r="E328" s="2">
-        <v>152874</v>
+        <v>25462406</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D329" s="2">
-        <v>12566</v>
-      </c>
-      <c r="E329" s="2">
-        <v>556030</v>
+      <c r="C329" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D329" s="4">
+        <f>SUM(D321:D327)-D328</f>
+        <v>0</v>
+      </c>
+      <c r="E329" s="4">
+        <f>SUM(E321:E327)-E328</f>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,16 +6364,16 @@
         <v>126</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D330" s="2">
-        <v>6504</v>
+        <v>99931</v>
       </c>
       <c r="E330" s="2">
-        <v>56544</v>
+        <v>4691583</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -6286,32 +6381,33 @@
         <v>126</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D331" s="2">
-        <v>430153</v>
+        <v>89027</v>
       </c>
       <c r="E331" s="2">
-        <v>25462406</v>
+        <v>7122145</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C332" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D332" s="6">
-        <f>SUM(D324:D330)-D331</f>
-        <v>0</v>
-      </c>
-      <c r="E332" s="6">
-        <f>SUM(E324:E330)-E331</f>
-        <v>0</v>
+      <c r="B332" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D332" s="2">
+        <v>79591</v>
+      </c>
+      <c r="E332" s="2">
+        <v>3521725</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6322,13 +6418,13 @@
         <v>119</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D333" s="2">
-        <v>99931</v>
+        <v>5559</v>
       </c>
       <c r="E333" s="2">
-        <v>4691583</v>
+        <v>152300</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6339,13 +6435,13 @@
         <v>119</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D334" s="2">
-        <v>89027</v>
+        <v>969</v>
       </c>
       <c r="E334" s="2">
-        <v>7122145</v>
+        <v>37992</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6356,30 +6452,29 @@
         <v>119</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D335" s="2">
-        <v>79591</v>
+        <v>275077</v>
       </c>
       <c r="E335" s="2">
-        <v>3521725</v>
+        <v>15525745</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D336" s="2">
-        <v>5559</v>
-      </c>
-      <c r="E336" s="2">
-        <v>152300</v>
+      <c r="C336" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D336" s="4">
+        <f>SUM(D330:D334)-D335</f>
+        <v>0</v>
+      </c>
+      <c r="E336" s="4">
+        <f>SUM(E330:E334)-E335</f>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6387,16 +6482,16 @@
         <v>126</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D337" s="2">
-        <v>969</v>
+        <v>61804</v>
       </c>
       <c r="E337" s="2">
-        <v>37992</v>
+        <v>116656</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -6404,32 +6499,33 @@
         <v>126</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D338" s="2">
-        <v>275077</v>
+        <v>56884</v>
       </c>
       <c r="E338" s="2">
-        <v>15525745</v>
+        <v>309972</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C339" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D339" s="6">
-        <f>SUM(D333:D337)-D338</f>
-        <v>0</v>
-      </c>
-      <c r="E339" s="6">
-        <f>SUM(E333:E337)-E338</f>
-        <v>0</v>
+      <c r="B339" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D339" s="2">
+        <v>14734</v>
+      </c>
+      <c r="E339" s="2">
+        <v>23601</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,13 +6536,13 @@
         <v>121</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D340" s="2">
-        <v>61804</v>
+        <v>9783</v>
       </c>
       <c r="E340" s="2">
-        <v>116656</v>
+        <v>455040</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -6457,13 +6553,13 @@
         <v>121</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D341" s="2">
-        <v>56884</v>
+        <v>44918</v>
       </c>
       <c r="E341" s="2">
-        <v>309972</v>
+        <v>170857</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -6474,30 +6570,29 @@
         <v>121</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D342" s="2">
-        <v>14734</v>
+        <v>188123</v>
       </c>
       <c r="E342" s="2">
-        <v>23601</v>
+        <v>1076126</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D343" s="2">
-        <v>9783</v>
-      </c>
-      <c r="E343" s="2">
-        <v>455040</v>
+      <c r="C343" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D343" s="4">
+        <f>SUM(D337:D341)-D342</f>
+        <v>0</v>
+      </c>
+      <c r="E343" s="4">
+        <f>SUM(E337:E341)-E342</f>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -6505,16 +6600,16 @@
         <v>126</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D344" s="2">
-        <v>44918</v>
+        <v>33375</v>
       </c>
       <c r="E344" s="2">
-        <v>170857</v>
+        <v>2669995</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,32 +6617,33 @@
         <v>126</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D345" s="2">
-        <v>188123</v>
+        <v>10151</v>
       </c>
       <c r="E345" s="2">
-        <v>1076126</v>
+        <v>398089</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C346" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D346" s="6">
-        <f>SUM(D340:D344)-D345</f>
-        <v>0</v>
-      </c>
-      <c r="E346" s="6">
-        <f>SUM(E340:E344)-E345</f>
-        <v>0</v>
+      <c r="B346" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D346" s="2">
+        <v>9880</v>
+      </c>
+      <c r="E346" s="2">
+        <v>18581</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,13 +6654,13 @@
         <v>123</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D347" s="2">
-        <v>33375</v>
+        <v>13636</v>
       </c>
       <c r="E347" s="2">
-        <v>2669995</v>
+        <v>303979</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,30 +6671,29 @@
         <v>123</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D348" s="2">
-        <v>10151</v>
+        <v>67042</v>
       </c>
       <c r="E348" s="2">
-        <v>398089</v>
+        <v>3390644</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D349" s="2">
-        <v>9880</v>
-      </c>
-      <c r="E349" s="2">
-        <v>18581</v>
+      <c r="C349" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D349" s="4">
+        <f>SUM(D344:D347)-D348</f>
+        <v>0</v>
+      </c>
+      <c r="E349" s="4">
+        <f>SUM(E344:E347)-E348</f>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -6606,16 +6701,16 @@
         <v>126</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D350" s="2">
-        <v>13636</v>
+        <v>5908</v>
       </c>
       <c r="E350" s="2">
-        <v>303979</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -6623,49 +6718,49 @@
         <v>126</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D351" s="2">
-        <v>67042</v>
+        <v>4532</v>
       </c>
       <c r="E351" s="2">
-        <v>3390644</v>
+        <v>62096</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C352" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D352" s="6">
-        <f>SUM(D347:D350)-D351</f>
-        <v>0</v>
-      </c>
-      <c r="E352" s="6">
-        <f>SUM(E347:E350)-E351</f>
-        <v>0</v>
+      <c r="B352" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="2">
+        <v>10440</v>
+      </c>
+      <c r="E352" s="2">
+        <v>73207</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D353" s="2">
-        <v>5908</v>
-      </c>
-      <c r="E353" s="2">
-        <v>11111</v>
+      <c r="C353" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D353" s="4">
+        <f>SUM(D350:D351)-D352</f>
+        <v>0</v>
+      </c>
+      <c r="E353" s="4">
+        <f>SUM(E350:E351)-E352</f>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -6673,16 +6768,16 @@
         <v>126</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D354" s="2">
-        <v>4532</v>
+        <v>5457</v>
       </c>
       <c r="E354" s="2">
-        <v>62096</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -6690,668 +6785,624 @@
         <v>126</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="D355" s="2">
-        <v>10440</v>
+        <v>3618</v>
       </c>
       <c r="E355" s="2">
-        <v>73207</v>
+        <v>27957</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D356" s="6">
-        <f>SUM(D353:D354)-D355</f>
-        <v>0</v>
-      </c>
-      <c r="E356" s="6">
-        <f>SUM(E353:E354)-E355</f>
-        <v>0</v>
+      <c r="B356" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="2">
+        <v>9075</v>
+      </c>
+      <c r="E356" s="2">
+        <v>38220</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D357" s="2">
-        <v>5457</v>
-      </c>
-      <c r="E357" s="2">
-        <v>10263</v>
+      <c r="C357" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D357" s="4">
+        <f>SUM(D354:D355)-D356</f>
+        <v>0</v>
+      </c>
+      <c r="E357" s="4">
+        <f>SUM(E354:E355)-E356</f>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D358" s="2">
-        <v>3618</v>
+        <v>19082960</v>
       </c>
       <c r="E358" s="2">
-        <v>27957</v>
+        <v>144645675</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D359" s="2">
-        <v>9075</v>
+        <v>8648882</v>
       </c>
       <c r="E359" s="2">
-        <v>38220</v>
+        <v>63965600</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D360" s="6">
-        <f>SUM(D357:D358)-D359</f>
-        <v>0</v>
-      </c>
-      <c r="E360" s="6">
-        <f>SUM(E357:E358)-E359</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="2">
+        <v>7024702</v>
+      </c>
+      <c r="E360" s="2">
+        <v>60803098</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D361" s="2">
+        <v>2916242</v>
+      </c>
+      <c r="E361" s="2">
+        <v>16732918</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D362" s="2">
-        <v>19082960</v>
+        <v>121546</v>
       </c>
       <c r="E362" s="2">
-        <v>144645675</v>
+        <v>925714</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D363" s="2">
+        <v>84110</v>
+      </c>
+      <c r="E363" s="2">
+        <v>372320</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D364" s="2">
-        <v>8648882</v>
+        <v>56454</v>
       </c>
       <c r="E364" s="2">
-        <v>63965600</v>
+        <v>105719</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D365" s="2">
-        <v>7024702</v>
+        <v>32753</v>
       </c>
       <c r="E365" s="2">
-        <v>60803098</v>
+        <v>148204</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D366" s="2">
-        <v>2916242</v>
+        <v>30986</v>
       </c>
       <c r="E366" s="2">
-        <v>16732918</v>
+        <v>183132</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D367" s="2">
-        <v>121546</v>
+        <v>25942</v>
       </c>
       <c r="E367" s="2">
-        <v>925714</v>
+        <v>351149</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D368" s="2">
-        <v>84110</v>
+        <v>20733</v>
       </c>
       <c r="E368" s="2">
-        <v>372320</v>
+        <v>49910</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D369" s="2">
-        <v>56454</v>
+        <v>17501</v>
       </c>
       <c r="E369" s="2">
-        <v>105719</v>
+        <v>178829</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D370" s="2">
-        <v>32753</v>
+        <v>9689</v>
       </c>
       <c r="E370" s="2">
-        <v>148204</v>
+        <v>26683</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D371" s="2">
-        <v>30986</v>
+        <v>7305</v>
       </c>
       <c r="E371" s="2">
-        <v>183132</v>
+        <v>36251</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D372" s="2">
-        <v>25942</v>
+        <v>7139</v>
       </c>
       <c r="E372" s="2">
-        <v>351149</v>
+        <v>97927</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D373" s="2">
-        <v>20733</v>
+        <v>6023</v>
       </c>
       <c r="E373" s="2">
-        <v>49910</v>
+        <v>71314</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D374" s="2">
-        <v>17501</v>
+        <v>18453</v>
       </c>
       <c r="E374" s="2">
-        <v>178829</v>
+        <v>446270</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="D375" s="2">
-        <v>9689</v>
+        <v>19028460</v>
       </c>
       <c r="E375" s="2">
-        <v>26683</v>
+        <v>144495038</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D376" s="2">
-        <v>7305</v>
-      </c>
-      <c r="E376" s="2">
-        <v>36251</v>
+        <v>137</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D376" s="4">
+        <f>SUM(D359:D374)-D375</f>
+        <v>0</v>
+      </c>
+      <c r="E376" s="4">
+        <f>SUM(E359:E374)-E375</f>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="D377" s="2">
-        <v>7139</v>
+        <v>18293</v>
       </c>
       <c r="E377" s="2">
-        <v>97927</v>
+        <v>34257</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D378" s="2">
-        <v>6023</v>
+        <v>18293</v>
       </c>
       <c r="E378" s="2">
-        <v>71314</v>
+        <v>34257</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D379" s="2">
-        <v>18453</v>
-      </c>
-      <c r="E379" s="2">
-        <v>446270</v>
+        <v>137</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D379" s="4">
+        <v>0</v>
+      </c>
+      <c r="E379" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D380" s="2">
-        <v>19028460</v>
+        <v>8039</v>
       </c>
       <c r="E380" s="2">
-        <v>144495038</v>
+        <v>15054</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D381" s="4">
-        <f>SUM(D364:D379)-D380</f>
-        <v>0</v>
-      </c>
-      <c r="E381" s="4">
-        <f>SUM(E364:E379)-E380</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="2">
+        <v>5678</v>
+      </c>
+      <c r="E381" s="2">
+        <v>38318</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D382" s="2">
-        <v>18293</v>
+        <v>13717</v>
       </c>
       <c r="E382" s="2">
-        <v>34257</v>
+        <v>53372</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D383" s="2">
-        <v>18293</v>
-      </c>
-      <c r="E383" s="2">
-        <v>34257</v>
+        <v>137</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D383" s="4">
+        <f>SUM(D380:D381)-D382</f>
+        <v>0</v>
+      </c>
+      <c r="E383" s="4">
+        <f>SUM(E380:E381)-E382</f>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D384" s="2">
+        <v>11622</v>
+      </c>
+      <c r="E384" s="2">
+        <v>21764</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D385" s="2">
-        <v>8039</v>
+        <v>50</v>
       </c>
       <c r="E385" s="2">
-        <v>15054</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D386" s="2">
-        <v>5678</v>
+        <v>11672</v>
       </c>
       <c r="E386" s="2">
-        <v>38318</v>
+        <v>21984</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D387" s="2">
-        <v>13717</v>
-      </c>
-      <c r="E387" s="2">
-        <v>53372</v>
+        <v>137</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D387" s="4">
+        <f>SUM(D384:D385)-D386</f>
+        <v>0</v>
+      </c>
+      <c r="E387" s="4">
+        <f>SUM(E384:E385)-E386</f>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D388" s="4">
-        <f>SUM(D385:D386)-D387</f>
-        <v>0</v>
-      </c>
-      <c r="E388" s="4">
-        <f>SUM(E385:E386)-E387</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D388" s="2">
+        <v>7255</v>
+      </c>
+      <c r="E388" s="2">
+        <v>13586</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D389" s="2">
-        <v>11622</v>
+        <v>3563</v>
       </c>
       <c r="E389" s="2">
-        <v>21764</v>
+        <v>27438</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D390" s="2">
-        <v>50</v>
+        <v>10818</v>
       </c>
       <c r="E390" s="2">
-        <v>220</v>
+        <v>41024</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D391" s="2">
-        <v>11672</v>
-      </c>
-      <c r="E391" s="2">
-        <v>21984</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C392" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D392" s="4">
-        <f>SUM(D389:D390)-D391</f>
-        <v>0</v>
-      </c>
-      <c r="E392" s="4">
-        <f>SUM(E389:E390)-E391</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D393" s="2">
-        <v>7255</v>
-      </c>
-      <c r="E393" s="2">
-        <v>13586</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D394" s="2">
-        <v>3563</v>
-      </c>
-      <c r="E394" s="2">
-        <v>27438</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D395" s="2">
-        <v>10818</v>
-      </c>
-      <c r="E395" s="2">
-        <v>41024</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D396" s="4">
-        <f>SUM(D393:D394)-D395</f>
-        <v>0</v>
-      </c>
-      <c r="E396" s="4">
-        <f>SUM(E393:E394)-E395</f>
+      <c r="D391" s="4">
+        <f>SUM(D388:D389)-D390</f>
+        <v>0</v>
+      </c>
+      <c r="E391" s="4">
+        <f>SUM(E388:E389)-E390</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E391" xr:uid="{828EEC29-C769-1B4E-9F1F-B7C46ADD98D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>